--- a/Code/Results/Cases/Case_2_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_51/res_line/pl_mw.xlsx
@@ -412,10 +412,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.41978914380104</v>
+        <v>2.419789143801097</v>
       </c>
       <c r="C2">
-        <v>0.8921724745285928</v>
+        <v>0.8921724745281381</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.7625248843232484</v>
+        <v>0.7625248843232697</v>
       </c>
       <c r="K2">
-        <v>0.517332866342997</v>
+        <v>0.5173328663429828</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,10 +450,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.07546886556446</v>
+        <v>2.075468865564517</v>
       </c>
       <c r="C3">
-        <v>0.7639188417825835</v>
+        <v>0.7639188417823277</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -468,16 +468,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.429535089113813</v>
+        <v>2.429535089113799</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.6536889951013407</v>
+        <v>0.653688995101362</v>
       </c>
       <c r="K3">
-        <v>0.44310338101333</v>
+        <v>0.4431033810133869</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,13 +491,13 @@
         <v>1.868914708258075</v>
       </c>
       <c r="C4">
-        <v>0.6871138372198118</v>
+        <v>0.6871138372197834</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.197134277920469</v>
+        <v>0.1971342779205543</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.247978736219125</v>
+        <v>2.247978736219096</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0.5884320698570278</v>
       </c>
       <c r="K4">
-        <v>0.3987103835588854</v>
+        <v>0.3987103835588925</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,10 +526,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.785773618293291</v>
+        <v>1.785773618293319</v>
       </c>
       <c r="C5">
-        <v>0.6562256820008372</v>
+        <v>0.6562256820010361</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -544,16 +544,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.175256246393857</v>
+        <v>2.175256246393843</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5621717495691598</v>
+        <v>0.562171749569174</v>
       </c>
       <c r="K5">
-        <v>0.3808711292863833</v>
+        <v>0.380871129286362</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.772025231977437</v>
+        <v>1.772025231977267</v>
       </c>
       <c r="C6">
-        <v>0.6511194026556097</v>
+        <v>0.6511194026555813</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1869095226698434</v>
+        <v>0.1869095226698505</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.163251419886009</v>
+        <v>2.163251419886024</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5578296377379814</v>
+        <v>0.557829637738017</v>
       </c>
       <c r="K6">
-        <v>0.3779228487686837</v>
+        <v>0.3779228487687689</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.867789498590724</v>
+        <v>1.867789498590412</v>
       </c>
       <c r="C7">
-        <v>0.6866957035000496</v>
+        <v>0.686695703500078</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1970154489991387</v>
+        <v>0.1970154489990676</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5880766450253248</v>
+        <v>0.5880766450252821</v>
       </c>
       <c r="K7">
-        <v>0.3984688374923877</v>
+        <v>0.3984688374923806</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.299936872252658</v>
+        <v>2.299936872252715</v>
       </c>
       <c r="C8">
-        <v>0.8474973330444868</v>
+        <v>0.8474973330436342</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2427952184496007</v>
+        <v>0.2427952184495936</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.628162968368457</v>
+        <v>2.6281629683685</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.7246329727828282</v>
+        <v>0.724632972782814</v>
       </c>
       <c r="K8">
         <v>0.491462997675157</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.195911745980936</v>
+        <v>3.19591174598105</v>
       </c>
       <c r="C9">
-        <v>1.182331505303523</v>
+        <v>1.182331505303466</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3385589717064121</v>
+        <v>0.3385589717063766</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
@@ -696,16 +696,16 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3.432638926410775</v>
+        <v>3.432638926410846</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.008112866123994</v>
+        <v>1.00811286612398</v>
       </c>
       <c r="K9">
-        <v>0.6856535497819536</v>
+        <v>0.6856535497819607</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.900302626844677</v>
+        <v>3.900302626844962</v>
       </c>
       <c r="C10">
-        <v>1.446989773588541</v>
+        <v>1.446989773589223</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4145906869730283</v>
+        <v>0.4145906869730922</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.231331361323441</v>
+        <v>1.231331361323413</v>
       </c>
       <c r="K10">
-        <v>0.8395713741816451</v>
+        <v>0.8395713741817019</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>4.235405342613262</v>
       </c>
       <c r="C11">
-        <v>1.573342633528512</v>
+        <v>1.573342633527773</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4509812626025393</v>
+        <v>0.4509812626025678</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
@@ -772,16 +772,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.384722775472738</v>
+        <v>4.384722775472653</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.337635672323785</v>
+        <v>1.337635672323827</v>
       </c>
       <c r="K11">
-        <v>0.9131701452308647</v>
+        <v>0.9131701452308789</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.364894758376977</v>
+        <v>4.364894758377034</v>
       </c>
       <c r="C12">
-        <v>1.622244980776884</v>
+        <v>1.622244980777054</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4650804617932351</v>
+        <v>0.4650804617932494</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.50449715287985</v>
+        <v>4.504497152879765</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -833,22 +833,22 @@
         <v>4.336882770849456</v>
       </c>
       <c r="C13">
-        <v>1.611662442816453</v>
+        <v>1.611662442816908</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4620286804589284</v>
+        <v>0.4620286804589213</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.478566654632573</v>
+        <v>4.478566654632544</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>1.369841558161284</v>
       </c>
       <c r="K13">
-        <v>0.9355048018595937</v>
+        <v>0.9355048018595795</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.246003412758171</v>
+        <v>4.246003412758341</v>
       </c>
       <c r="C14">
         <v>1.577343425094909</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4521344354254779</v>
+        <v>0.4521344354254637</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
@@ -886,16 +886,16 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.394516734050001</v>
+        <v>4.394516734050057</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.340998869854303</v>
+        <v>1.340998869854317</v>
       </c>
       <c r="K14">
-        <v>0.9155017039591513</v>
+        <v>0.9155017039592224</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.190690956688911</v>
+        <v>4.190690956689025</v>
       </c>
       <c r="C15">
-        <v>1.556466054254031</v>
+        <v>1.556466054254656</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4461174320830352</v>
+        <v>0.4461174320829997</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
@@ -924,16 +924,16 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.343418885790726</v>
+        <v>4.343418885790811</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.323446783080911</v>
+        <v>1.323446783080897</v>
       </c>
       <c r="K15">
-        <v>0.9033356770243302</v>
+        <v>0.9033356770243728</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.878737250916288</v>
+        <v>3.878737250916345</v>
       </c>
       <c r="C16">
-        <v>1.438868275796779</v>
+        <v>1.438868275796892</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4122535832297487</v>
+        <v>0.4122535832297132</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.056085327532429</v>
+        <v>4.056085327532315</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.224492674532456</v>
+        <v>1.224492674532442</v>
       </c>
       <c r="K16">
-        <v>0.8348431731846944</v>
+        <v>0.8348431731847086</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.691436089832962</v>
+        <v>3.691436089832905</v>
       </c>
       <c r="C17">
-        <v>1.368380982585506</v>
+        <v>1.368380982584938</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3919797907847737</v>
+        <v>0.3919797907847951</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
@@ -1000,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3.884291232810966</v>
+        <v>3.884291232810909</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.165109375047138</v>
+        <v>1.165109375047123</v>
       </c>
       <c r="K17">
-        <v>0.7938194605412292</v>
+        <v>0.7938194605412576</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.585052402290785</v>
+        <v>3.585052402291012</v>
       </c>
       <c r="C18">
-        <v>1.328385437427016</v>
+        <v>1.328385437426618</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3804843894221932</v>
+        <v>0.3804843894221648</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>3.786969462695822</v>
+        <v>3.786969462695907</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>1.131390738420237</v>
       </c>
       <c r="K18">
-        <v>0.770552396135038</v>
+        <v>0.7705523961350309</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.549250863178145</v>
+        <v>3.549250863178202</v>
       </c>
       <c r="C19">
-        <v>1.314932147997524</v>
+        <v>1.314932147997354</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3766190540126431</v>
+        <v>0.3766190540126928</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.120044957580475</v>
+        <v>1.120044957580518</v>
       </c>
       <c r="K19">
         <v>0.7627277869377735</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.711232014515815</v>
+        <v>3.711232014515588</v>
       </c>
       <c r="C20">
-        <v>1.375826564300894</v>
+        <v>1.375826564301235</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3941204439067008</v>
+        <v>0.3941204439066226</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.171384553464122</v>
+        <v>1.171384553464108</v>
       </c>
       <c r="K20">
-        <v>0.7981517033714027</v>
+        <v>0.7981517033713885</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.272622147885102</v>
+        <v>4.272622147885272</v>
       </c>
       <c r="C21">
-        <v>1.587393324716231</v>
+        <v>1.587393324716004</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4550314235866466</v>
+        <v>0.4550314235866111</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.419122927006327</v>
+        <v>4.419122927006299</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>1.349446394411501</v>
       </c>
       <c r="K21">
-        <v>0.9213588350377222</v>
+        <v>0.9213588350376938</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,31 +1175,31 @@
         <v>4.654941241632173</v>
       </c>
       <c r="C22">
-        <v>1.731939682198629</v>
+        <v>1.731939682198572</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4967363428697311</v>
+        <v>0.4967363428697453</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.773624759694343</v>
+        <v>4.7736247596944</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.470826987324998</v>
+        <v>1.470826987325012</v>
       </c>
       <c r="K22">
-        <v>1.005649010439484</v>
+        <v>1.005649010439456</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.449292142925685</v>
+        <v>4.449292142925628</v>
       </c>
       <c r="C23">
-        <v>1.654141381211161</v>
+        <v>1.654141381211332</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4742810135499766</v>
+        <v>0.4742810135499553</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.582689348619283</v>
+        <v>4.582689348619255</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.405524695873837</v>
+        <v>1.405524695873822</v>
       </c>
       <c r="K23">
-        <v>0.9602709919244319</v>
+        <v>0.9602709919244461</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.702278268379985</v>
+        <v>3.702278268379928</v>
       </c>
       <c r="C24">
-        <v>1.3724587849523</v>
+        <v>1.372458784951732</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3931521597464993</v>
+        <v>0.3931521597463998</v>
       </c>
       <c r="F24">
-        <v>2.170038921573038</v>
+        <v>2.170038921573024</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3.89422034921904</v>
+        <v>3.894220349219012</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.168546243517767</v>
+        <v>1.16854624351781</v>
       </c>
       <c r="K24">
-        <v>0.7961921144648869</v>
+        <v>0.7961921144648727</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.946789305531127</v>
+        <v>2.94678930553107</v>
       </c>
       <c r="C25">
-        <v>1.08903125163954</v>
+        <v>1.089031251639653</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3118226743463168</v>
+        <v>0.3118226743463026</v>
       </c>
       <c r="F25">
         <v>1.757113814925404</v>
@@ -1304,16 +1304,16 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3.207267354753156</v>
+        <v>3.207267354753171</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.9292423947155157</v>
+        <v>0.9292423947155299</v>
       </c>
       <c r="K25">
-        <v>0.6314774861142709</v>
+        <v>0.6314774861142851</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_51/res_line/pl_mw.xlsx
@@ -412,10 +412,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.419789143801097</v>
+        <v>2.41978914380104</v>
       </c>
       <c r="C2">
-        <v>0.8921724745281381</v>
+        <v>0.8921724745285928</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.7625248843232697</v>
+        <v>0.7625248843232484</v>
       </c>
       <c r="K2">
-        <v>0.5173328663429828</v>
+        <v>0.517332866342997</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,10 +450,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.075468865564517</v>
+        <v>2.07546886556446</v>
       </c>
       <c r="C3">
-        <v>0.7639188417823277</v>
+        <v>0.7639188417825835</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -468,16 +468,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.429535089113799</v>
+        <v>2.429535089113813</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.653688995101362</v>
+        <v>0.6536889951013407</v>
       </c>
       <c r="K3">
-        <v>0.4431033810133869</v>
+        <v>0.44310338101333</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,13 +491,13 @@
         <v>1.868914708258075</v>
       </c>
       <c r="C4">
-        <v>0.6871138372197834</v>
+        <v>0.6871138372198118</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1971342779205543</v>
+        <v>0.197134277920469</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2.247978736219096</v>
+        <v>2.247978736219125</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0.5884320698570278</v>
       </c>
       <c r="K4">
-        <v>0.3987103835588925</v>
+        <v>0.3987103835588854</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,10 +526,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.785773618293319</v>
+        <v>1.785773618293291</v>
       </c>
       <c r="C5">
-        <v>0.6562256820010361</v>
+        <v>0.6562256820008372</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -544,16 +544,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2.175256246393843</v>
+        <v>2.175256246393857</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.562171749569174</v>
+        <v>0.5621717495691598</v>
       </c>
       <c r="K5">
-        <v>0.380871129286362</v>
+        <v>0.3808711292863833</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.772025231977267</v>
+        <v>1.772025231977437</v>
       </c>
       <c r="C6">
-        <v>0.6511194026555813</v>
+        <v>0.6511194026556097</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1869095226698505</v>
+        <v>0.1869095226698434</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.163251419886024</v>
+        <v>2.163251419886009</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.557829637738017</v>
+        <v>0.5578296377379814</v>
       </c>
       <c r="K6">
-        <v>0.3779228487687689</v>
+        <v>0.3779228487686837</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.867789498590412</v>
+        <v>1.867789498590724</v>
       </c>
       <c r="C7">
-        <v>0.686695703500078</v>
+        <v>0.6866957035000496</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1970154489990676</v>
+        <v>0.1970154489991387</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5880766450252821</v>
+        <v>0.5880766450253248</v>
       </c>
       <c r="K7">
-        <v>0.3984688374923806</v>
+        <v>0.3984688374923877</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.299936872252715</v>
+        <v>2.299936872252658</v>
       </c>
       <c r="C8">
-        <v>0.8474973330436342</v>
+        <v>0.8474973330444868</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2427952184495936</v>
+        <v>0.2427952184496007</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.6281629683685</v>
+        <v>2.628162968368457</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.724632972782814</v>
+        <v>0.7246329727828282</v>
       </c>
       <c r="K8">
         <v>0.491462997675157</v>
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.19591174598105</v>
+        <v>3.195911745980936</v>
       </c>
       <c r="C9">
-        <v>1.182331505303466</v>
+        <v>1.182331505303523</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3385589717063766</v>
+        <v>0.3385589717064121</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
@@ -696,16 +696,16 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3.432638926410846</v>
+        <v>3.432638926410775</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1.00811286612398</v>
+        <v>1.008112866123994</v>
       </c>
       <c r="K9">
-        <v>0.6856535497819607</v>
+        <v>0.6856535497819536</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.900302626844962</v>
+        <v>3.900302626844677</v>
       </c>
       <c r="C10">
-        <v>1.446989773589223</v>
+        <v>1.446989773588541</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4145906869730922</v>
+        <v>0.4145906869730283</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.231331361323413</v>
+        <v>1.231331361323441</v>
       </c>
       <c r="K10">
-        <v>0.8395713741817019</v>
+        <v>0.8395713741816451</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>4.235405342613262</v>
       </c>
       <c r="C11">
-        <v>1.573342633527773</v>
+        <v>1.573342633528512</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4509812626025678</v>
+        <v>0.4509812626025393</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
@@ -772,16 +772,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.384722775472653</v>
+        <v>4.384722775472738</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.337635672323827</v>
+        <v>1.337635672323785</v>
       </c>
       <c r="K11">
-        <v>0.9131701452308789</v>
+        <v>0.9131701452308647</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.364894758377034</v>
+        <v>4.364894758376977</v>
       </c>
       <c r="C12">
-        <v>1.622244980777054</v>
+        <v>1.622244980776884</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4650804617932494</v>
+        <v>0.4650804617932351</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.504497152879765</v>
+        <v>4.50449715287985</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -833,22 +833,22 @@
         <v>4.336882770849456</v>
       </c>
       <c r="C13">
-        <v>1.611662442816908</v>
+        <v>1.611662442816453</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4620286804589213</v>
+        <v>0.4620286804589284</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.478566654632544</v>
+        <v>4.478566654632573</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>1.369841558161284</v>
       </c>
       <c r="K13">
-        <v>0.9355048018595795</v>
+        <v>0.9355048018595937</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.246003412758341</v>
+        <v>4.246003412758171</v>
       </c>
       <c r="C14">
         <v>1.577343425094909</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4521344354254637</v>
+        <v>0.4521344354254779</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
@@ -886,16 +886,16 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.394516734050057</v>
+        <v>4.394516734050001</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.340998869854317</v>
+        <v>1.340998869854303</v>
       </c>
       <c r="K14">
-        <v>0.9155017039592224</v>
+        <v>0.9155017039591513</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.190690956689025</v>
+        <v>4.190690956688911</v>
       </c>
       <c r="C15">
-        <v>1.556466054254656</v>
+        <v>1.556466054254031</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4461174320829997</v>
+        <v>0.4461174320830352</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
@@ -924,16 +924,16 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.343418885790811</v>
+        <v>4.343418885790726</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.323446783080897</v>
+        <v>1.323446783080911</v>
       </c>
       <c r="K15">
-        <v>0.9033356770243728</v>
+        <v>0.9033356770243302</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.878737250916345</v>
+        <v>3.878737250916288</v>
       </c>
       <c r="C16">
-        <v>1.438868275796892</v>
+        <v>1.438868275796779</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4122535832297132</v>
+        <v>0.4122535832297487</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.056085327532315</v>
+        <v>4.056085327532429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.224492674532442</v>
+        <v>1.224492674532456</v>
       </c>
       <c r="K16">
-        <v>0.8348431731847086</v>
+        <v>0.8348431731846944</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.691436089832905</v>
+        <v>3.691436089832962</v>
       </c>
       <c r="C17">
-        <v>1.368380982584938</v>
+        <v>1.368380982585506</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3919797907847951</v>
+        <v>0.3919797907847737</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
@@ -1000,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3.884291232810909</v>
+        <v>3.884291232810966</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.165109375047123</v>
+        <v>1.165109375047138</v>
       </c>
       <c r="K17">
-        <v>0.7938194605412576</v>
+        <v>0.7938194605412292</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.585052402291012</v>
+        <v>3.585052402290785</v>
       </c>
       <c r="C18">
-        <v>1.328385437426618</v>
+        <v>1.328385437427016</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3804843894221648</v>
+        <v>0.3804843894221932</v>
       </c>
       <c r="F18">
-        <v>2.107028586650742</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>3.786969462695907</v>
+        <v>3.786969462695822</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>1.131390738420237</v>
       </c>
       <c r="K18">
-        <v>0.7705523961350309</v>
+        <v>0.770552396135038</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.549250863178202</v>
+        <v>3.549250863178145</v>
       </c>
       <c r="C19">
-        <v>1.314932147997354</v>
+        <v>1.314932147997524</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3766190540126928</v>
+        <v>0.3766190540126431</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1.120044957580518</v>
+        <v>1.120044957580475</v>
       </c>
       <c r="K19">
         <v>0.7627277869377735</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.711232014515588</v>
+        <v>3.711232014515815</v>
       </c>
       <c r="C20">
-        <v>1.375826564301235</v>
+        <v>1.375826564300894</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3941204439066226</v>
+        <v>0.3941204439067008</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>1.171384553464108</v>
+        <v>1.171384553464122</v>
       </c>
       <c r="K20">
-        <v>0.7981517033713885</v>
+        <v>0.7981517033714027</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.272622147885272</v>
+        <v>4.272622147885102</v>
       </c>
       <c r="C21">
-        <v>1.587393324716004</v>
+        <v>1.587393324716231</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4550314235866111</v>
+        <v>0.4550314235866466</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.419122927006299</v>
+        <v>4.419122927006327</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>1.349446394411501</v>
       </c>
       <c r="K21">
-        <v>0.9213588350376938</v>
+        <v>0.9213588350377222</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,31 +1175,31 @@
         <v>4.654941241632173</v>
       </c>
       <c r="C22">
-        <v>1.731939682198572</v>
+        <v>1.731939682198629</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4967363428697453</v>
+        <v>0.4967363428697311</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.7736247596944</v>
+        <v>4.773624759694343</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.470826987325012</v>
+        <v>1.470826987324998</v>
       </c>
       <c r="K22">
-        <v>1.005649010439456</v>
+        <v>1.005649010439484</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.449292142925628</v>
+        <v>4.449292142925685</v>
       </c>
       <c r="C23">
-        <v>1.654141381211332</v>
+        <v>1.654141381211161</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4742810135499553</v>
+        <v>0.4742810135499766</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.582689348619255</v>
+        <v>4.582689348619283</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.405524695873822</v>
+        <v>1.405524695873837</v>
       </c>
       <c r="K23">
-        <v>0.9602709919244461</v>
+        <v>0.9602709919244319</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.702278268379928</v>
+        <v>3.702278268379985</v>
       </c>
       <c r="C24">
-        <v>1.372458784951732</v>
+        <v>1.3724587849523</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3931521597463998</v>
+        <v>0.3931521597464993</v>
       </c>
       <c r="F24">
-        <v>2.170038921573024</v>
+        <v>2.170038921573038</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3.894220349219012</v>
+        <v>3.89422034921904</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1.16854624351781</v>
+        <v>1.168546243517767</v>
       </c>
       <c r="K24">
-        <v>0.7961921144648727</v>
+        <v>0.7961921144648869</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.94678930553107</v>
+        <v>2.946789305531127</v>
       </c>
       <c r="C25">
-        <v>1.089031251639653</v>
+        <v>1.08903125163954</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3118226743463026</v>
+        <v>0.3118226743463168</v>
       </c>
       <c r="F25">
         <v>1.757113814925404</v>
@@ -1304,16 +1304,16 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3.207267354753171</v>
+        <v>3.207267354753156</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.9292423947155299</v>
+        <v>0.9292423947155157</v>
       </c>
       <c r="K25">
-        <v>0.6314774861142851</v>
+        <v>0.6314774861142709</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_51/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.41978914380104</v>
+        <v>2.394810526813274</v>
       </c>
       <c r="C2">
-        <v>0.8921724745285928</v>
+        <v>0.8806810006585124</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.255540743964076</v>
+        <v>0.2544374372732179</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.000784596698445539</v>
       </c>
       <c r="H2">
-        <v>2.734741778790053</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.751149953406397</v>
       </c>
       <c r="J2">
-        <v>0.7625248843232484</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.517332866342997</v>
+        <v>0.7540511962709999</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.513790172876881</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.07546886556446</v>
+        <v>2.054980591285585</v>
       </c>
       <c r="C3">
-        <v>0.7639188417825835</v>
+        <v>0.7544919850709562</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2189809159050355</v>
+        <v>0.2180186336395451</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007952381899315117</v>
       </c>
       <c r="H3">
-        <v>2.429535089113813</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.44955536936331</v>
       </c>
       <c r="J3">
-        <v>0.6536889951013407</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.44310338101333</v>
+        <v>0.6467421799392099</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.4401958345617558</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.868914708258075</v>
+        <v>1.851159138759897</v>
       </c>
       <c r="C4">
-        <v>0.6871138372198118</v>
+        <v>0.6789418010604891</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.197134277920469</v>
+        <v>0.1962497558006504</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0008018893740406832</v>
       </c>
       <c r="H4">
-        <v>2.247978736219125</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.27015281341464</v>
       </c>
       <c r="J4">
-        <v>0.5884320698570278</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3987103835588854</v>
+        <v>0.5824143952616012</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.396178901755647</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.785773618293291</v>
+        <v>1.7691291392577</v>
       </c>
       <c r="C5">
-        <v>0.6562256820008372</v>
+        <v>0.6485634188301503</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1883594789997645</v>
+        <v>0.1875047605008149</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0008046326706004482</v>
       </c>
       <c r="H5">
-        <v>2.175256246393857</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.198295744556731</v>
       </c>
       <c r="J5">
-        <v>0.5621717495691598</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3808711292863833</v>
+        <v>0.5565318269491684</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.3784901881391818</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.772025231977437</v>
+        <v>1.755565192821024</v>
       </c>
       <c r="C6">
-        <v>0.6511194026556097</v>
+        <v>0.6435417355878883</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1869095226698434</v>
+        <v>0.1860596480118986</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0008050902717127629</v>
       </c>
       <c r="H6">
-        <v>2.163251419886009</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.186433981314053</v>
       </c>
       <c r="J6">
-        <v>0.5578296377379814</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3779228487686837</v>
+        <v>0.5522524197175898</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.3755667619847145</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.867789498590724</v>
+        <v>1.850048919412103</v>
       </c>
       <c r="C7">
-        <v>0.6866957035000496</v>
+        <v>0.6785305466864031</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1970154489991387</v>
+        <v>0.1961313360470598</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0008019262336811487</v>
       </c>
       <c r="H7">
-        <v>2.246993116830055</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.269178910401735</v>
       </c>
       <c r="J7">
-        <v>0.5880766450253248</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3984688374923877</v>
+        <v>0.5820640670049357</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.3959393959449855</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.299936872252658</v>
+        <v>2.276513950374977</v>
       </c>
       <c r="C8">
-        <v>0.8474973330444868</v>
+        <v>0.8367214885903707</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2427952184496007</v>
+        <v>0.2417425905667798</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.000788243711723603</v>
       </c>
       <c r="H8">
-        <v>2.628162968368457</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.645832387043001</v>
       </c>
       <c r="J8">
-        <v>0.7246329727828282</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.491462997675157</v>
+        <v>0.7166882844660307</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.4881427096223021</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.195911745980936</v>
+        <v>3.160952602545763</v>
       </c>
       <c r="C9">
-        <v>1.182331505303523</v>
+        <v>1.166243120364129</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3385589717064121</v>
+        <v>0.3370869184997005</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007621666542936993</v>
       </c>
       <c r="H9">
-        <v>3.432638926410775</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.440733673030863</v>
       </c>
       <c r="J9">
-        <v>1.008112866123994</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6856535497819536</v>
+        <v>0.9962456339452075</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.6806279899191026</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.900302626844677</v>
+        <v>3.85627402644667</v>
       </c>
       <c r="C10">
-        <v>1.446989773588541</v>
+        <v>1.426720256521776</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4145906869730283</v>
+        <v>0.4127218681800855</v>
       </c>
       <c r="F10">
         <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007431786038517579</v>
       </c>
       <c r="H10">
-        <v>4.075900974562103</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.076154367795425</v>
       </c>
       <c r="J10">
-        <v>1.231331361323441</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8395713741816451</v>
+        <v>1.216381630466429</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.8331199580450885</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.235405342613262</v>
+        <v>4.187012522958526</v>
       </c>
       <c r="C11">
-        <v>1.573342633528512</v>
+        <v>1.551061448685687</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4509812626025393</v>
+        <v>0.4489017512791378</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.000734497252747445</v>
       </c>
       <c r="H11">
-        <v>4.384722775472738</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>4.381120812212004</v>
       </c>
       <c r="J11">
-        <v>1.337635672323785</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9131701452308647</v>
+        <v>1.321203378771173</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.9060078112384673</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.364894758376977</v>
+        <v>4.31480259607622</v>
       </c>
       <c r="C12">
-        <v>1.622244980776884</v>
+        <v>1.599180696206361</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4650804617932351</v>
+        <v>0.4629155469516135</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007311952723708142</v>
       </c>
       <c r="H12">
-        <v>4.50449715287985</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.499381056842111</v>
       </c>
       <c r="J12">
-        <v>1.378732894586548</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9416739398059946</v>
+        <v>1.361723478540824</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.9342306018368447</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.336882770849456</v>
+        <v>4.287158905920251</v>
       </c>
       <c r="C13">
-        <v>1.611662442816453</v>
+        <v>1.588767866684918</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4620286804589284</v>
+        <v>0.4598824332630542</v>
       </c>
       <c r="F13">
         <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007319072096787669</v>
       </c>
       <c r="H13">
-        <v>4.478566654632573</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.47377930593791</v>
       </c>
       <c r="J13">
-        <v>1.369841558161284</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9355048018595937</v>
+        <v>1.352957213445208</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.9281225620049582</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.246003412758171</v>
+        <v>4.197471807025124</v>
       </c>
       <c r="C14">
-        <v>1.577343425094909</v>
+        <v>1.554998278965172</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4521344354254779</v>
+        <v>0.4500480192194729</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007342259414165004</v>
       </c>
       <c r="H14">
-        <v>4.394516734050001</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.390791373965556</v>
       </c>
       <c r="J14">
-        <v>1.340998869854303</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9155017039591513</v>
+        <v>1.324519438941337</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.9083165072372594</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.190690956688911</v>
+        <v>4.142883133161263</v>
       </c>
       <c r="C15">
-        <v>1.556466054254031</v>
+        <v>1.534454481426849</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4461174320830352</v>
+        <v>0.4440668878809362</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007356440642347217</v>
       </c>
       <c r="H15">
-        <v>4.343418885790726</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.340336528723441</v>
       </c>
       <c r="J15">
-        <v>1.323446783080911</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9033356770243302</v>
+        <v>1.307213184543073</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.8962695405053296</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.878737250916288</v>
+        <v>3.834988078755885</v>
       </c>
       <c r="C16">
-        <v>1.438868275796779</v>
+        <v>1.4187275781116</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4122535832297487</v>
+        <v>0.4103978252896425</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007437444028895228</v>
       </c>
       <c r="H16">
-        <v>4.056085327532429</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4.05658386413586</v>
       </c>
       <c r="J16">
-        <v>1.224492674532456</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8348431731846944</v>
+        <v>1.209637886359772</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.8284367392373895</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.691436089832962</v>
+        <v>3.650107874435207</v>
       </c>
       <c r="C17">
-        <v>1.368380982585506</v>
+        <v>1.349356417727904</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3919797907847737</v>
+        <v>0.3902349967618193</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007486971371242972</v>
       </c>
       <c r="H17">
-        <v>3.884291232810966</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.886904655991998</v>
       </c>
       <c r="J17">
-        <v>1.165109375047138</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7938194605412292</v>
+        <v>1.15107725157533</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.7878000005746273</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.585052402290785</v>
+        <v>3.545095121887016</v>
       </c>
       <c r="C18">
-        <v>1.328385437427016</v>
+        <v>1.309992928869406</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3804843894221932</v>
+        <v>0.3788006709069407</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007515422950901939</v>
       </c>
       <c r="H18">
-        <v>3.786969462695822</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.790773109782606</v>
       </c>
       <c r="J18">
-        <v>1.131390738420237</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.770552396135038</v>
+        <v>1.117824534968506</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.7647498599060896</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.549250863178145</v>
+        <v>3.509754384235009</v>
       </c>
       <c r="C19">
-        <v>1.314932147997524</v>
+        <v>1.296752086023162</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3766190540126431</v>
+        <v>0.3749555756713576</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.000752505237817641</v>
       </c>
       <c r="H19">
-        <v>3.754260108160111</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.758462578930619</v>
       </c>
       <c r="J19">
-        <v>1.120044957580475</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7627277869377735</v>
+        <v>1.1066353695945</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.7569978002890423</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.711232014515815</v>
+        <v>3.669648392209751</v>
       </c>
       <c r="C20">
-        <v>1.375826564300894</v>
+        <v>1.356684246781015</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3941204439067008</v>
+        <v>0.3923641300585103</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007481703296627299</v>
       </c>
       <c r="H20">
-        <v>3.902421513171902</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.90481259650457</v>
       </c>
       <c r="J20">
-        <v>1.171384553464122</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7981517033714027</v>
+        <v>1.157265633355024</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.7920916525081196</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.272622147885102</v>
+        <v>4.22374173095443</v>
       </c>
       <c r="C21">
-        <v>1.587393324716231</v>
+        <v>1.56488742850263</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4550314235866466</v>
+        <v>0.4529275981799188</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007335453427171239</v>
       </c>
       <c r="H21">
-        <v>4.419122927006327</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.415087225160704</v>
       </c>
       <c r="J21">
-        <v>1.349446394411501</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9213588350377222</v>
+        <v>1.332848495840352</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.9141161088737135</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.654941241632173</v>
+        <v>4.60101112168104</v>
       </c>
       <c r="C22">
-        <v>1.731939682198629</v>
+        <v>1.707107375016676</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4967363428697311</v>
+        <v>0.4943717432294505</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0007238971777679973</v>
       </c>
       <c r="H22">
-        <v>4.773624759694343</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.765064165538234</v>
       </c>
       <c r="J22">
-        <v>1.470826987324998</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.005649010439484</v>
+        <v>1.452514505387953</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.9975626034033098</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.449292142925685</v>
+        <v>4.398087933317299</v>
       </c>
       <c r="C23">
-        <v>1.654141381211161</v>
+        <v>1.630564719267227</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4742810135499766</v>
+        <v>0.4720592048205035</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007290580028897378</v>
       </c>
       <c r="H23">
-        <v>4.582689348619283</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.5765786809188</v>
       </c>
       <c r="J23">
-        <v>1.405524695873837</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9602709919244319</v>
+        <v>1.388137663721452</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.9526425179563063</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.702278268379985</v>
+        <v>3.660810179765349</v>
       </c>
       <c r="C24">
-        <v>1.3724587849523</v>
+        <v>1.353369732988199</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3931521597464993</v>
+        <v>0.3914010623900381</v>
       </c>
       <c r="F24">
         <v>2.170038921573038</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007484085057348449</v>
       </c>
       <c r="H24">
-        <v>3.89422034921904</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.896712031387608</v>
       </c>
       <c r="J24">
-        <v>1.168546243517767</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7961921144648869</v>
+        <v>1.154466585801899</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.7901504318392085</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.946789305531127</v>
+        <v>2.915024861506993</v>
       </c>
       <c r="C25">
-        <v>1.08903125163954</v>
+        <v>1.074415133550815</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3118226743463168</v>
+        <v>0.3104766509939623</v>
       </c>
       <c r="F25">
         <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007691675304501564</v>
       </c>
       <c r="H25">
-        <v>3.207267354753156</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.21806241696838</v>
       </c>
       <c r="J25">
-        <v>0.9292423947155157</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6314774861142709</v>
+        <v>0.9184613189018478</v>
       </c>
       <c r="L25">
+        <v>0.6269368067231369</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_51/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.394810526813274</v>
+        <v>3.099563255931798</v>
       </c>
       <c r="C2">
-        <v>0.8806810006585124</v>
+        <v>0.7756433476590132</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2544374372732179</v>
+        <v>0.1553215102801317</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.000784596698445539</v>
+        <v>0.0007867011896810102</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.751149953406397</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7540511962709999</v>
+        <v>0.8739296877977978</v>
       </c>
       <c r="L2">
-        <v>0.513790172876881</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>1.090103241989347</v>
+      </c>
+      <c r="N2">
+        <v>1.651117081496523</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.054980591285585</v>
+        <v>2.670222888790022</v>
       </c>
       <c r="C3">
-        <v>0.7544919850709562</v>
+        <v>0.6648578825104323</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2180186336395451</v>
+        <v>0.1337000926111926</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0007952381899315117</v>
+        <v>0.0007968497481804502</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.44955536936331</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6467421799392099</v>
+        <v>0.7516711569951795</v>
       </c>
       <c r="L3">
-        <v>0.4401958345617558</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.9377131944108186</v>
+      </c>
+      <c r="N3">
+        <v>1.621594113241102</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.851159138759897</v>
+        <v>2.412692745896265</v>
       </c>
       <c r="C4">
-        <v>0.6789418010604891</v>
+        <v>0.5984402159862441</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1962497558006504</v>
+        <v>0.1207783867179941</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008018893740406832</v>
+        <v>0.0008032071885872759</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.27015281341464</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5824143952616012</v>
+        <v>0.6783452113959925</v>
       </c>
       <c r="L4">
-        <v>0.396178901755647</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.846401915831045</v>
+      </c>
+      <c r="N4">
+        <v>1.606238111010555</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.7691291392577</v>
+        <v>2.30905574883036</v>
       </c>
       <c r="C5">
-        <v>0.6485634188301503</v>
+        <v>0.5717155279050701</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1875047605008149</v>
+        <v>0.1155888451939013</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008046326706004482</v>
+        <v>0.0008058325034989259</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.198295744556731</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5565318269491684</v>
+        <v>0.6488374877577385</v>
       </c>
       <c r="L5">
-        <v>0.3784901881391818</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.8096760981902023</v>
+      </c>
+      <c r="N5">
+        <v>1.600611780896756</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.755565192821024</v>
+        <v>2.291919887081406</v>
       </c>
       <c r="C6">
-        <v>0.6435417355878883</v>
+        <v>0.567296808920446</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1860596480118986</v>
+        <v>0.1147313757076134</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.0008050902717127629</v>
+        <v>0.0008062706039691707</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.186433981314053</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5522524197175898</v>
+        <v>0.6439585290502805</v>
       </c>
       <c r="L6">
-        <v>0.3755667619847145</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.8036047835190985</v>
+      </c>
+      <c r="N6">
+        <v>1.599713879348457</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.850048919412103</v>
+        <v>2.41129003917024</v>
       </c>
       <c r="C7">
-        <v>0.6785305466864031</v>
+        <v>0.5980784944481741</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1961313360470598</v>
+        <v>0.1207081063703868</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0.0008019262336811487</v>
+        <v>0.0008032424508234447</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.269178910401735</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5820640670049357</v>
+        <v>0.677945829449591</v>
       </c>
       <c r="L7">
-        <v>0.3959393959449855</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.8459047615111004</v>
+      </c>
+      <c r="N7">
+        <v>1.606159757592536</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.276513950374977</v>
+        <v>2.950122255897327</v>
       </c>
       <c r="C8">
-        <v>0.8367214885903707</v>
+        <v>0.7370715286893983</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2417425905667798</v>
+        <v>0.1477848080609547</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.000788243711723603</v>
+        <v>0.000790176048963345</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.645832387043001</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7166882844660307</v>
+        <v>0.8313723836626252</v>
       </c>
       <c r="L8">
-        <v>0.4881427096223021</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1.037037765782905</v>
+      </c>
+      <c r="N8">
+        <v>1.640320750843188</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.160952602545763</v>
+        <v>4.066507369421799</v>
       </c>
       <c r="C9">
-        <v>1.166243120364129</v>
+        <v>1.025610178970652</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3370869184997005</v>
+        <v>0.2043544373166384</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>0.0007621666542936993</v>
+        <v>0.0007654065139481432</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.440733673030863</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9962456339452075</v>
+        <v>1.149395775164919</v>
       </c>
       <c r="L9">
-        <v>0.6806279899191026</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.434054179689582</v>
+      </c>
+      <c r="N9">
+        <v>1.732668251660698</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.85627402644667</v>
+        <v>4.941749796891884</v>
       </c>
       <c r="C10">
-        <v>1.426720256521776</v>
+        <v>1.25263271595577</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4127218681800855</v>
+        <v>0.2491174794156024</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>0.0007431786038517579</v>
+        <v>0.0007474897831555423</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.076154367795425</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.216381630466429</v>
+        <v>1.3989435228101</v>
       </c>
       <c r="L10">
-        <v>0.8331199580450885</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.74628640029843</v>
+      </c>
+      <c r="N10">
+        <v>1.821452978815557</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.187012522958526</v>
+        <v>5.356962614547115</v>
       </c>
       <c r="C11">
-        <v>1.551061448685687</v>
+        <v>1.360634472004904</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4489017512791378</v>
+        <v>0.2704749307501757</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.000734497252747445</v>
+        <v>0.0007393351161873577</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.381120812212004</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.321203378771173</v>
+        <v>1.517411268067193</v>
       </c>
       <c r="L11">
-        <v>0.9060078112384673</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.894712504144564</v>
+      </c>
+      <c r="N11">
+        <v>1.867892347191912</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.31480259607622</v>
+        <v>5.517165017710283</v>
       </c>
       <c r="C12">
-        <v>1.599180696206361</v>
+        <v>1.402361475268265</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4629155469516135</v>
+        <v>0.2787360372565502</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007311952723708142</v>
+        <v>0.0007362399506529875</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.499381056842111</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.361723478540824</v>
+        <v>1.563135442747111</v>
       </c>
       <c r="L12">
-        <v>0.9342306018368447</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.952032952250505</v>
+      </c>
+      <c r="N12">
+        <v>1.886501731756312</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.287158905920251</v>
+        <v>5.482521190945249</v>
       </c>
       <c r="C13">
-        <v>1.588767866684918</v>
+        <v>1.393335261831396</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4598824332630542</v>
+        <v>0.276948595493046</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0.0007319072096787669</v>
+        <v>0.0007369069861660064</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.47377930593791</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.352957213445208</v>
+        <v>1.55324682118696</v>
       </c>
       <c r="L13">
-        <v>0.9281225620049582</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.93963487664891</v>
+      </c>
+      <c r="N13">
+        <v>1.882445575618902</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.197471807025124</v>
+        <v>5.370079729945473</v>
       </c>
       <c r="C14">
-        <v>1.554998278965172</v>
+        <v>1.364049805566879</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4500480192194729</v>
+        <v>0.2711509043869427</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007342259414165004</v>
+        <v>0.0007390806606337342</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.390791373965556</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.324519438941337</v>
+        <v>1.521154758061172</v>
       </c>
       <c r="L14">
-        <v>0.9083165072372594</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.899404698952225</v>
+      </c>
+      <c r="N14">
+        <v>1.869401850852967</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.142883133161263</v>
+        <v>5.301609877357009</v>
       </c>
       <c r="C15">
-        <v>1.534454481426849</v>
+        <v>1.346224498369054</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4440668878809362</v>
+        <v>0.2676232493465633</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0007356440642347217</v>
+        <v>0.000740410950356269</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.340336528723441</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.307213184543073</v>
+        <v>1.501614810771187</v>
       </c>
       <c r="L15">
-        <v>0.8962695405053296</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.87491415400622</v>
+      </c>
+      <c r="N15">
+        <v>1.861550571086013</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.834988078755885</v>
+        <v>4.91500006949218</v>
       </c>
       <c r="C16">
-        <v>1.4187275781116</v>
+        <v>1.245681819805668</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4103978252896425</v>
+        <v>0.2477442121719804</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0007437444028895228</v>
+        <v>0.000748022089965353</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.05658386413586</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.209637886359772</v>
+        <v>1.391313268938305</v>
       </c>
       <c r="L16">
-        <v>0.8284367392373895</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.736730926769695</v>
+      </c>
+      <c r="N16">
+        <v>1.818552324743706</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.650107874435207</v>
+        <v>4.682536727453339</v>
       </c>
       <c r="C17">
-        <v>1.349356417727904</v>
+        <v>1.185310881598241</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3902349967618193</v>
+        <v>0.2358237770840788</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007486971371242972</v>
+        <v>0.0007526858760195257</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.886904655991998</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.15107725157533</v>
+        <v>1.32501346992818</v>
       </c>
       <c r="L17">
-        <v>0.7878000005746273</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.653725145803989</v>
+      </c>
+      <c r="N17">
+        <v>1.793824923714794</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.545095121887016</v>
+        <v>4.550399941656906</v>
       </c>
       <c r="C18">
-        <v>1.309992928869406</v>
+        <v>1.151021760997367</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3788006709069407</v>
+        <v>0.2290589463861465</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>0.0007515422950901939</v>
+        <v>0.0007553684159248016</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.790773109782606</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.117824534968506</v>
+        <v>1.287334713182076</v>
       </c>
       <c r="L18">
-        <v>0.7647498599060896</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.606570284663761</v>
+      </c>
+      <c r="N18">
+        <v>1.780161231484669</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.509754384235009</v>
+        <v>4.505916059609945</v>
       </c>
       <c r="C19">
-        <v>1.296752086023162</v>
+        <v>1.139482595593051</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3749555756713576</v>
+        <v>0.2267833638616921</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.000752505237817641</v>
+        <v>0.0007562768682720655</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.758462578930619</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.1066353695945</v>
+        <v>1.274651318523624</v>
       </c>
       <c r="L19">
-        <v>0.7569978002890423</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.590700023364761</v>
+      </c>
+      <c r="N19">
+        <v>1.775626681895773</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.669648392209751</v>
+        <v>4.707116908048363</v>
       </c>
       <c r="C20">
-        <v>1.356684246781015</v>
+        <v>1.191691493110852</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3923641300585103</v>
+        <v>0.237083055882394</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007481703296627299</v>
+        <v>0.0007521894462764159</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.90481259650457</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.157265633355024</v>
+        <v>1.332023080489506</v>
       </c>
       <c r="L20">
-        <v>0.7920916525081196</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.662499104662359</v>
+      </c>
+      <c r="N20">
+        <v>1.796398332967044</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.22374173095443</v>
+        <v>5.403021302198113</v>
       </c>
       <c r="C21">
-        <v>1.56488742850263</v>
+        <v>1.37262782236462</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4529275981799188</v>
+        <v>0.2728488461736376</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007335453427171239</v>
+        <v>0.0007384424527237181</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.415087225160704</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.332848495840352</v>
+        <v>1.530556204029835</v>
       </c>
       <c r="L21">
-        <v>0.9141161088737135</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.911189281332909</v>
+      </c>
+      <c r="N21">
+        <v>1.873203955161642</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.60101112168104</v>
+        <v>5.875461985245352</v>
       </c>
       <c r="C22">
-        <v>1.707107375016676</v>
+        <v>1.495803861820605</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4943717432294505</v>
+        <v>0.297253776693168</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.0007238971777679973</v>
+        <v>0.0007294122327199393</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.765064165538234</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.452514505387953</v>
+        <v>1.66543150926681</v>
       </c>
       <c r="L22">
-        <v>0.9975626034033098</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2.080339187450193</v>
+      </c>
+      <c r="N22">
+        <v>1.929461860692385</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.398087933317299</v>
+        <v>5.621501624467442</v>
       </c>
       <c r="C23">
-        <v>1.630564719267227</v>
+        <v>1.42955489231656</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4720592048205035</v>
+        <v>0.2841225097682454</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.0007290580028897378</v>
+        <v>0.0007342385147885988</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.5765786809188</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.388137663721452</v>
+        <v>1.592919485165098</v>
       </c>
       <c r="L23">
-        <v>0.9526425179563063</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.98938054459596</v>
+      </c>
+      <c r="N23">
+        <v>1.898822721788747</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.660810179765349</v>
+        <v>4.695999544398944</v>
       </c>
       <c r="C24">
-        <v>1.353369732988199</v>
+        <v>1.188805524610871</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3914010623900381</v>
+        <v>0.2365134628520025</v>
       </c>
       <c r="F24">
-        <v>2.170038921573038</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0007484085057348449</v>
+        <v>0.0007524138776893174</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.896712031387608</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.154466585801899</v>
+        <v>1.328852682704323</v>
       </c>
       <c r="L24">
-        <v>0.7901504318392085</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.658530648328082</v>
+      </c>
+      <c r="N24">
+        <v>1.795233185231496</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.915024861506993</v>
+        <v>3.756345987094278</v>
       </c>
       <c r="C25">
-        <v>1.074415133550815</v>
+        <v>0.9453452347196389</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3104766509939623</v>
+        <v>0.188577171827653</v>
       </c>
       <c r="F25">
-        <v>1.757113814925404</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.0007691675304501564</v>
+        <v>0.0007720385185369072</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.21806241696838</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9184613189018478</v>
+        <v>1.061013461793195</v>
       </c>
       <c r="L25">
-        <v>0.6269368067231369</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>1.323613988332369</v>
+      </c>
+      <c r="N25">
+        <v>1.70445551263164</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_51/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.099563255931798</v>
+        <v>1.140441849447427</v>
       </c>
       <c r="C2">
-        <v>0.7756433476590132</v>
+        <v>0.07598864113343495</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1553215102801317</v>
+        <v>0.05645837071065074</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007867011896810102</v>
+        <v>0.5862188352014641</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.4583448751698853</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.4759057484956983</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8739296877977978</v>
+        <v>0.9850312069310689</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2652115477228989</v>
       </c>
       <c r="M2">
-        <v>1.090103241989347</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.651117081496523</v>
+        <v>0.9384144764406175</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.670222888790022</v>
+        <v>0.9935377773186644</v>
       </c>
       <c r="C3">
-        <v>0.6648578825104323</v>
+        <v>0.06893986189121648</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1337000926111926</v>
+        <v>0.05208995177745024</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0007968497481804502</v>
+        <v>0.5730189288653378</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.459586659374807</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.4775492707749613</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7516711569951795</v>
+        <v>0.8546938116004981</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2346680494204065</v>
       </c>
       <c r="M3">
-        <v>0.9377131944108186</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.621594113241102</v>
+        <v>0.9875800021908194</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.412692745896265</v>
+        <v>0.9039227526864977</v>
       </c>
       <c r="C4">
-        <v>0.5984402159862441</v>
+        <v>0.06461750139157374</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1207783867179941</v>
+        <v>0.04947397650968988</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008032071885872759</v>
+        <v>0.5662586760650612</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.4611432396591084</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.4794989179769651</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6783452113959925</v>
+        <v>0.7750966727304842</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2161785496607678</v>
       </c>
       <c r="M4">
-        <v>0.846401915831045</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.606238111010555</v>
+        <v>1.019056330632165</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.30905574883036</v>
+        <v>0.8675322754125148</v>
       </c>
       <c r="C5">
-        <v>0.5717155279050701</v>
+        <v>0.06285630047961632</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1155888451939013</v>
+        <v>0.04842368424684018</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008058325034989259</v>
+        <v>0.5638247843701407</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.4619695842465745</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.4805203109078526</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6488374877577385</v>
+        <v>0.7427513866165327</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2087046979793996</v>
       </c>
       <c r="M5">
-        <v>0.8096760981902023</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.600611780896756</v>
+        <v>1.032199484244222</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.291919887081406</v>
+        <v>0.8614968924271125</v>
       </c>
       <c r="C6">
-        <v>0.567296808920446</v>
+        <v>0.06256383213231942</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1147313757076134</v>
+        <v>0.04825020855126105</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0008062706039691707</v>
+        <v>0.5634395399230527</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.4621181795141709</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.4807033447462636</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6439585290502805</v>
+        <v>0.7373855036934174</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2074671799496883</v>
       </c>
       <c r="M6">
-        <v>0.8036047835190985</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.599713879348457</v>
+        <v>1.034400780471579</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.41129003917024</v>
+        <v>0.9034314821012401</v>
       </c>
       <c r="C7">
-        <v>0.5980784944481741</v>
+        <v>0.06459374997943002</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1207081063703868</v>
+        <v>0.04945974935845676</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.0008032424508234447</v>
+        <v>0.5662245741648064</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.4611536163605336</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.479511786483048</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.677945829449591</v>
+        <v>0.7746601055140161</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2160775159464805</v>
       </c>
       <c r="M7">
-        <v>0.8459047615111004</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.606159757592536</v>
+        <v>1.019232313021394</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.950122255897327</v>
+        <v>1.089656387102309</v>
       </c>
       <c r="C8">
-        <v>0.7370715286893983</v>
+        <v>0.07355629768139949</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1477848080609547</v>
+        <v>0.05493781978033851</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.000790176048963345</v>
+        <v>0.5813778550310644</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.4586034844749634</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.4762712955785915</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8313723836626252</v>
+        <v>0.9399908995300166</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2546217561049389</v>
       </c>
       <c r="M8">
-        <v>1.037037765782905</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.640320750843188</v>
+        <v>0.9550945665637478</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.066507369421799</v>
+        <v>1.460393478759784</v>
       </c>
       <c r="C9">
-        <v>1.025610178970652</v>
+        <v>0.0912360672237611</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2043544373166384</v>
+        <v>0.06625034410459563</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.0007654065139481432</v>
+        <v>0.6225820649967773</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.4602704444858432</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.4778380777702154</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.149395775164919</v>
+        <v>1.268454901238755</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3325800027565862</v>
       </c>
       <c r="M9">
-        <v>1.434054179689582</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.732668251660698</v>
+        <v>0.8399085180929404</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.941749796891884</v>
+        <v>1.737534451823223</v>
       </c>
       <c r="C10">
-        <v>1.25263271595577</v>
+        <v>0.1043795596506527</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2491174794156024</v>
+        <v>0.07497525475810107</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.0007474897831555423</v>
+        <v>0.6610752784979894</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.4661038519343208</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.4844969916781992</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.3989435228101</v>
+        <v>1.513629921529684</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3917152128584576</v>
       </c>
       <c r="M10">
-        <v>1.74628640029843</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.821452978815557</v>
+        <v>0.7622693873534327</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.356962614547115</v>
+        <v>1.864978022840148</v>
       </c>
       <c r="C11">
-        <v>1.360634472004904</v>
+        <v>0.1104145104961276</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2704749307501757</v>
+        <v>0.07904997720860862</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007393351161873577</v>
+        <v>0.6806633373986415</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.4698887806868868</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.4888846097952495</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.517411268067193</v>
+        <v>1.626306986671892</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4191198262628717</v>
       </c>
       <c r="M11">
-        <v>1.894712504144564</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.867892347191912</v>
+        <v>0.7285944522456491</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.517165017710283</v>
+        <v>1.913464065985693</v>
       </c>
       <c r="C12">
-        <v>1.402361475268265</v>
+        <v>0.1127098389079464</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2787360372565502</v>
+        <v>0.08060956201135738</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007362399506529875</v>
+        <v>0.6884058392758163</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.4714965083334732</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.4907560854285933</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.563135442747111</v>
+        <v>1.669166645105548</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.4295784518127732</v>
       </c>
       <c r="M12">
-        <v>1.952032952250505</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.886501731756312</v>
+        <v>0.7160906976501957</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.482521190945249</v>
+        <v>1.903011197883046</v>
       </c>
       <c r="C13">
-        <v>1.393335261831396</v>
+        <v>0.1122150195641183</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.276948595493046</v>
+        <v>0.08027291738572018</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.0007369069861660064</v>
+        <v>0.6867234627129619</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.4711422990806966</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.4903434458622797</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.55324682118696</v>
+        <v>1.659927097373014</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.4273222481650123</v>
       </c>
       <c r="M13">
-        <v>1.93963487664891</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.882445575618902</v>
+        <v>0.7187723668612742</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.370079729945473</v>
+        <v>1.868962297778921</v>
       </c>
       <c r="C14">
-        <v>1.364049805566879</v>
+        <v>0.1106031356608241</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2711509043869427</v>
+        <v>0.07917794476855278</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007390806606337342</v>
+        <v>0.6812936483169807</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.4700174823161234</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.4890342811428923</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.521154758061172</v>
+        <v>1.629829083065943</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.4199785865327499</v>
       </c>
       <c r="M14">
-        <v>1.899404698952225</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.869401850852967</v>
+        <v>0.7275607150492966</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.301609877357009</v>
+        <v>1.848136679362511</v>
       </c>
       <c r="C15">
-        <v>1.346224498369054</v>
+        <v>0.1096171774933197</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2676232493465633</v>
+        <v>0.07850944351659095</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.000740410950356269</v>
+        <v>0.6780108577486317</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.4693515841166658</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.4882601787072787</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.501614810771187</v>
+        <v>1.611418916820838</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.4154912105425126</v>
       </c>
       <c r="M15">
-        <v>1.87491415400622</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.861550571086013</v>
+        <v>0.7329765244748465</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.91500006949218</v>
+        <v>1.729235710733491</v>
       </c>
       <c r="C16">
-        <v>1.245681819805668</v>
+        <v>0.1039864520552527</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2477442121719804</v>
+        <v>0.07471120462219361</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.000748022089965353</v>
+        <v>0.6598391495223268</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.4658802489501852</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.4842388124539028</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.391313268938305</v>
+        <v>1.506291487107859</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.3899351186204854</v>
       </c>
       <c r="M16">
-        <v>1.736730926769695</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.818552324743706</v>
+        <v>0.7645041903994869</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.682536727453339</v>
+        <v>1.656664713211143</v>
       </c>
       <c r="C17">
-        <v>1.185310881598241</v>
+        <v>0.1005478610944905</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2358237770840788</v>
+        <v>0.0724091323695184</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007526858760195257</v>
+        <v>0.6492414799778601</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.4640485495985871</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.4821298412855128</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.32501346992818</v>
+        <v>1.442110900244444</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.3743922587237876</v>
       </c>
       <c r="M17">
-        <v>1.653725145803989</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.793824923714794</v>
+        <v>0.7842745091898129</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.550399941656906</v>
+        <v>1.615050963891747</v>
       </c>
       <c r="C18">
-        <v>1.151021760997367</v>
+        <v>0.09857520824741783</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2290589463861465</v>
+        <v>0.07109490409600383</v>
       </c>
       <c r="F18">
-        <v>2.107028586650742</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007553684159248016</v>
+        <v>0.6433398237262224</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.4631007298162331</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.4810437415908808</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.287334713182076</v>
+        <v>1.405302055767947</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.3654992730810136</v>
       </c>
       <c r="M18">
-        <v>1.606570284663761</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.780161231484669</v>
+        <v>0.7957998054120523</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.505916059609945</v>
+        <v>1.600982262557835</v>
       </c>
       <c r="C19">
-        <v>1.139482595593051</v>
+        <v>0.09790812600359544</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2267833638616921</v>
+        <v>0.07065158261564619</v>
       </c>
       <c r="F19">
-        <v>2.087706772602971</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.0007562768682720655</v>
+        <v>0.6413741501488488</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.4627976282118027</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.4806973778809649</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.274651318523624</v>
+        <v>1.392856666428202</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3624960550129401</v>
       </c>
       <c r="M19">
-        <v>1.590700023364761</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.775626681895773</v>
+        <v>0.7997281628487878</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.707116908048363</v>
+        <v>1.664376656573381</v>
       </c>
       <c r="C20">
-        <v>1.191691493110852</v>
+        <v>0.1009133598398435</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.237083055882394</v>
+        <v>0.0726531614810213</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007521894462764159</v>
+        <v>0.6503493743611415</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.4642325124670634</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.482341106061881</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.332023080489506</v>
+        <v>1.448931863378448</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3760419125467678</v>
       </c>
       <c r="M20">
-        <v>1.662499104662359</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.796398332967044</v>
+        <v>0.7821539103974748</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.403021302198113</v>
+        <v>1.878956912637875</v>
       </c>
       <c r="C21">
-        <v>1.37262782236462</v>
+        <v>0.1110762963041623</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2728488461736376</v>
+        <v>0.07949910347285538</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007384424527237181</v>
+        <v>0.6828794790509107</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.4703430351554516</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.4894129936319231</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.530556204029835</v>
+        <v>1.63866418559391</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4221333248744941</v>
       </c>
       <c r="M21">
-        <v>1.911189281332909</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.873203955161642</v>
+        <v>0.7249725286197126</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.875461985245352</v>
+        <v>2.020529422723655</v>
       </c>
       <c r="C22">
-        <v>1.495803861820605</v>
+        <v>0.1177778397599667</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.297253776693168</v>
+        <v>0.08407064788069363</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0007294122327199393</v>
+        <v>0.706047359866588</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.4753596195888292</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.495266407945266</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.66543150926681</v>
+        <v>1.76379413550157</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.4527338965394705</v>
       </c>
       <c r="M22">
-        <v>2.080339187450193</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.929461860692385</v>
+        <v>0.6890541323162829</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.621501624467442</v>
+        <v>1.944837523275396</v>
       </c>
       <c r="C23">
-        <v>1.42955489231656</v>
+        <v>0.1141949548410821</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2841225097682454</v>
+        <v>0.08162134361379714</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0.0007342385147885988</v>
+        <v>0.6934984883718158</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.4725844361081499</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.4920245170112381</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.592919485165098</v>
+        <v>1.696897300108816</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.4363551009337812</v>
       </c>
       <c r="M23">
-        <v>1.98938054459596</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.898822721788747</v>
+        <v>0.708087349868169</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.695999544398944</v>
+        <v>1.660889751850846</v>
       </c>
       <c r="C24">
-        <v>1.188805524610871</v>
+        <v>0.1007481048015677</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2365134628520025</v>
+        <v>0.07254280716798789</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0007524138776893174</v>
+        <v>0.6498479020813193</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.4641490159083332</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.4822452007174363</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.328852682704323</v>
+        <v>1.445847829373236</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3752959713519743</v>
       </c>
       <c r="M24">
-        <v>1.658530648328082</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.795233185231496</v>
+        <v>0.7831121385113642</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.756345987094278</v>
+        <v>1.359368686754351</v>
       </c>
       <c r="C25">
-        <v>0.9453452347196389</v>
+        <v>0.08643314644826461</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.188577171827653</v>
+        <v>0.06312240793569401</v>
       </c>
       <c r="F25">
-        <v>1.757113814925091</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.0007720385185369072</v>
+        <v>0.6100847219054515</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.4590517895982202</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.4764988890590729</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.061013461793195</v>
+        <v>1.179016795331876</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3111952385535517</v>
       </c>
       <c r="M25">
-        <v>1.323613988332369</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.70445551263164</v>
+        <v>0.8698830982495558</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_51/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.140441849447427</v>
+        <v>0.6628252533777754</v>
       </c>
       <c r="C2">
-        <v>0.07598864113343495</v>
+        <v>0.05636454526420209</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05645837071065074</v>
+        <v>0.08405757332559816</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.5862188352014641</v>
+        <v>1.016663603098138</v>
       </c>
       <c r="H2">
-        <v>0.4583448751698853</v>
+        <v>1.041725090818716</v>
       </c>
       <c r="I2">
-        <v>0.4759057484956983</v>
+        <v>1.005509539630399</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9850312069310689</v>
+        <v>0.424796154726323</v>
       </c>
       <c r="L2">
-        <v>0.2652115477228989</v>
+        <v>0.2180205523869745</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9384144764406175</v>
+        <v>1.911934984869209</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9935377773186644</v>
+        <v>0.6235849028883536</v>
       </c>
       <c r="C3">
-        <v>0.06893986189121648</v>
+        <v>0.05399335241401104</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05208995177745024</v>
+        <v>0.08339352120374954</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.5730189288653378</v>
+        <v>1.020924513557887</v>
       </c>
       <c r="H3">
-        <v>0.459586659374807</v>
+        <v>1.048347776992102</v>
       </c>
       <c r="I3">
-        <v>0.4775492707749613</v>
+        <v>1.012580043170352</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8546938116004981</v>
+        <v>0.388305896346651</v>
       </c>
       <c r="L3">
-        <v>0.2346680494204065</v>
+        <v>0.2108835005249006</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9875800021908194</v>
+        <v>1.932299460346287</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9039227526864977</v>
+        <v>0.5997605487285966</v>
       </c>
       <c r="C4">
-        <v>0.06461750139157374</v>
+        <v>0.0525176477162006</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04947397650968988</v>
+        <v>0.08302523262647554</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.5662586760650612</v>
+        <v>1.024149801122419</v>
       </c>
       <c r="H4">
-        <v>0.4611432396591084</v>
+        <v>1.05285443413851</v>
       </c>
       <c r="I4">
-        <v>0.4794989179769651</v>
+        <v>1.017404798925682</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7750966727304842</v>
+        <v>0.3660349307352817</v>
       </c>
       <c r="L4">
-        <v>0.2161785496607678</v>
+        <v>0.2066213008989735</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.019056330632165</v>
+        <v>1.94543939277232</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8675322754125148</v>
+        <v>0.5901201821920381</v>
       </c>
       <c r="C5">
-        <v>0.06285630047961632</v>
+        <v>0.05191130000524424</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04842368424684018</v>
+        <v>0.08288509085488904</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.5638247843701407</v>
+        <v>1.025617162556422</v>
       </c>
       <c r="H5">
-        <v>0.4619695842465745</v>
+        <v>1.054801691921583</v>
       </c>
       <c r="I5">
-        <v>0.4805203109078526</v>
+        <v>1.019492478761617</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7427513866165327</v>
+        <v>0.3569934281344729</v>
       </c>
       <c r="L5">
-        <v>0.2087046979793996</v>
+        <v>0.2049146490264775</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.032199484244222</v>
+        <v>1.95095394709097</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8614968924271125</v>
+        <v>0.5885235440301813</v>
       </c>
       <c r="C6">
-        <v>0.06256383213231942</v>
+        <v>0.05181031494933563</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04825020855126105</v>
+        <v>0.08286242131253907</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.5634395399230527</v>
+        <v>1.02587005582469</v>
       </c>
       <c r="H6">
-        <v>0.4621181795141709</v>
+        <v>1.055131723356823</v>
       </c>
       <c r="I6">
-        <v>0.4807033447462636</v>
+        <v>1.019846477567835</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7373855036934174</v>
+        <v>0.3554941632393991</v>
       </c>
       <c r="L6">
-        <v>0.2074671799496883</v>
+        <v>0.2046330883012928</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.034400780471579</v>
+        <v>1.951879293246941</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9034314821012401</v>
+        <v>0.5996302583457691</v>
       </c>
       <c r="C7">
-        <v>0.06459374997943002</v>
+        <v>0.05250949050240195</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04945974935845676</v>
+        <v>0.08302330235582289</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.5662245741648064</v>
+        <v>1.024168971024494</v>
       </c>
       <c r="H7">
-        <v>0.4611536163605336</v>
+        <v>1.052880247028156</v>
       </c>
       <c r="I7">
-        <v>0.479511786483048</v>
+        <v>1.017432461960478</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7746601055140161</v>
+        <v>0.3659128553474602</v>
       </c>
       <c r="L7">
-        <v>0.2160775159464805</v>
+        <v>0.2065981619189472</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.019232313021394</v>
+        <v>1.945513116474347</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.089656387102309</v>
+        <v>0.6492395652282426</v>
       </c>
       <c r="C8">
-        <v>0.07355629768139949</v>
+        <v>0.05555105632500101</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05493781978033851</v>
+        <v>0.08382043399625871</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.5813778550310644</v>
+        <v>1.01800627501261</v>
       </c>
       <c r="H8">
-        <v>0.4586034844749634</v>
+        <v>1.0439172326099</v>
       </c>
       <c r="I8">
-        <v>0.4762712955785915</v>
+        <v>1.007847104051979</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9399908995300166</v>
+        <v>0.4121866588764931</v>
       </c>
       <c r="L8">
-        <v>0.2546217561049389</v>
+        <v>0.2155348281117568</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9550945665637478</v>
+        <v>1.918824632469081</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.460393478759784</v>
+        <v>0.7486435632488337</v>
       </c>
       <c r="C9">
-        <v>0.0912360672237611</v>
+        <v>0.06135935063794307</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.06625034410459563</v>
+        <v>0.08569582341913318</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.6225820649967773</v>
+        <v>1.010760509782884</v>
       </c>
       <c r="H9">
-        <v>0.4602704444858432</v>
+        <v>1.029832870115868</v>
       </c>
       <c r="I9">
-        <v>0.4778380777702154</v>
+        <v>0.9928869800629627</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.268454901238755</v>
+        <v>0.5039836603803565</v>
       </c>
       <c r="L9">
-        <v>0.3325800027565862</v>
+        <v>0.2340101386414375</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8399085180929404</v>
+        <v>1.87153545076783</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.737534451823223</v>
+        <v>0.822953323261288</v>
       </c>
       <c r="C10">
-        <v>0.1043795596506527</v>
+        <v>0.06553287215865566</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.07497525475810107</v>
+        <v>0.08726327173333814</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.6610752784979894</v>
+        <v>1.008397564118781</v>
       </c>
       <c r="H10">
-        <v>0.4661038519343208</v>
+        <v>1.02161236890035</v>
       </c>
       <c r="I10">
-        <v>0.4844969916781992</v>
+        <v>0.9842364537948711</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.513629921529684</v>
+        <v>0.5720624383335178</v>
       </c>
       <c r="L10">
-        <v>0.3917152128584576</v>
+        <v>0.2481631999587819</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7622693873534327</v>
+        <v>1.839867594846749</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.864978022840148</v>
+        <v>0.8570335157829732</v>
       </c>
       <c r="C11">
-        <v>0.1104145104961276</v>
+        <v>0.06741145953991179</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.07904997720860862</v>
+        <v>0.08801737477945437</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.6806633373986415</v>
+        <v>1.007967780790409</v>
       </c>
       <c r="H11">
-        <v>0.4698887806868868</v>
+        <v>1.018334290401683</v>
       </c>
       <c r="I11">
-        <v>0.4888846097952495</v>
+        <v>0.9808097856899636</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.626306986671892</v>
+        <v>0.6031701545722683</v>
       </c>
       <c r="L11">
-        <v>0.4191198262628717</v>
+        <v>0.2547276317861531</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7285944522456491</v>
+        <v>1.826128638299531</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.913464065985693</v>
+        <v>0.8699781253475578</v>
       </c>
       <c r="C12">
-        <v>0.1127098389079464</v>
+        <v>0.06811997771788469</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.08060956201135738</v>
+        <v>0.08830882177360877</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.6884058392758163</v>
+        <v>1.007897972551575</v>
       </c>
       <c r="H12">
-        <v>0.4714965083334732</v>
+        <v>1.017159303219444</v>
       </c>
       <c r="I12">
-        <v>0.4907560854285933</v>
+        <v>0.9795853510914654</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.669166645105548</v>
+        <v>0.6149694759843669</v>
       </c>
       <c r="L12">
-        <v>0.4295784518127732</v>
+        <v>0.2572315149997593</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7160906976501957</v>
+        <v>1.821021982728869</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.903011197883046</v>
+        <v>0.8671885383119502</v>
       </c>
       <c r="C13">
-        <v>0.1122150195641183</v>
+        <v>0.06796751279441082</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.08027291738572018</v>
+        <v>0.08824579205536409</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.6867234627129619</v>
+        <v>1.007908870668317</v>
       </c>
       <c r="H13">
-        <v>0.4711422990806966</v>
+        <v>1.01740940692595</v>
       </c>
       <c r="I13">
-        <v>0.4903434458622797</v>
+        <v>0.9798457999431065</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.659927097373014</v>
+        <v>0.6124274197237582</v>
       </c>
       <c r="L13">
-        <v>0.4273222481650123</v>
+        <v>0.2566914560409828</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7187723668612742</v>
+        <v>1.82211752179408</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.868962297778921</v>
+        <v>0.8580976945362693</v>
       </c>
       <c r="C14">
-        <v>0.1106031356608241</v>
+        <v>0.06746980706385841</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.07917794476855278</v>
+        <v>0.08804123448033252</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.6812936483169807</v>
+        <v>1.007960173954004</v>
       </c>
       <c r="H14">
-        <v>0.4700174823161234</v>
+        <v>1.018236293792867</v>
       </c>
       <c r="I14">
-        <v>0.4890342811428923</v>
+        <v>0.9807075839974146</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.629829083065943</v>
+        <v>0.6041405031744489</v>
       </c>
       <c r="L14">
-        <v>0.4199785865327499</v>
+        <v>0.2549332658668817</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7275607150492966</v>
+        <v>1.825706586390728</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.848136679362511</v>
+        <v>0.8525343762622697</v>
       </c>
       <c r="C15">
-        <v>0.1096171774933197</v>
+        <v>0.06716457548058941</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07850944351659095</v>
+        <v>0.08791670279786246</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.6780108577486317</v>
+        <v>1.008003707521382</v>
       </c>
       <c r="H15">
-        <v>0.4693515841166658</v>
+        <v>1.018751426361391</v>
       </c>
       <c r="I15">
-        <v>0.4882601787072787</v>
+        <v>0.9812449819927096</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.611418916820838</v>
+        <v>0.599067056026314</v>
       </c>
       <c r="L15">
-        <v>0.4154912105425126</v>
+        <v>0.2538586757033698</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7329765244748465</v>
+        <v>1.82791749537721</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.729235710733491</v>
+        <v>0.8207316153344664</v>
       </c>
       <c r="C16">
-        <v>0.1039864520552527</v>
+        <v>0.06540970103819177</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.07471120462219361</v>
+        <v>0.08721481388542784</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.6598391495223268</v>
+        <v>1.008438647892234</v>
       </c>
       <c r="H16">
-        <v>0.4658802489501852</v>
+        <v>1.021835884210788</v>
       </c>
       <c r="I16">
-        <v>0.4842388124539028</v>
+        <v>0.9844706310690228</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.506291487107859</v>
+        <v>0.5700322264317208</v>
       </c>
       <c r="L16">
-        <v>0.3899351186204854</v>
+        <v>0.2477367316913899</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7645041903994869</v>
+        <v>1.840778895371604</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.656664713211143</v>
+        <v>0.8012920277897706</v>
       </c>
       <c r="C17">
-        <v>0.1005478610944905</v>
+        <v>0.06432803465352777</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.0724091323695184</v>
+        <v>0.08679473056313114</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.6492414799778601</v>
+        <v>1.008870826017869</v>
       </c>
       <c r="H17">
-        <v>0.4640485495985871</v>
+        <v>1.023846285984263</v>
       </c>
       <c r="I17">
-        <v>0.4821298412855128</v>
+        <v>0.9865797356599018</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.442110900244444</v>
+        <v>0.5522554542966986</v>
       </c>
       <c r="L17">
-        <v>0.3743922587237876</v>
+        <v>0.2440133787261516</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7842745091898129</v>
+        <v>1.848839821094575</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.615050963891747</v>
+        <v>0.7901369318084903</v>
       </c>
       <c r="C18">
-        <v>0.09857520824741783</v>
+        <v>0.06370400867225356</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.07109490409600383</v>
+        <v>0.08655697599903434</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.6433398237262224</v>
+        <v>1.00918011605863</v>
       </c>
       <c r="H18">
-        <v>0.4631007298162331</v>
+        <v>1.025046051984788</v>
       </c>
       <c r="I18">
-        <v>0.4810437415908808</v>
+        <v>0.9878406962825039</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.405302055767947</v>
+        <v>0.5420437694558586</v>
       </c>
       <c r="L18">
-        <v>0.3654992730810136</v>
+        <v>0.2418836805917692</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7957998054120523</v>
+        <v>1.853539019590877</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.600982262557835</v>
+        <v>0.7863644973311636</v>
       </c>
       <c r="C19">
-        <v>0.09790812600359544</v>
+        <v>0.06349240100600184</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.07065158261564619</v>
+        <v>0.08647714103836179</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.6413741501488488</v>
+        <v>1.009295258564904</v>
       </c>
       <c r="H19">
-        <v>0.4627976282118027</v>
+        <v>1.025459732606706</v>
       </c>
       <c r="I19">
-        <v>0.4806973778809649</v>
+        <v>0.9882758543205981</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.392856666428202</v>
+        <v>0.5385885206428895</v>
       </c>
       <c r="L19">
-        <v>0.3624960550129401</v>
+        <v>0.241164643011345</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7997281628487878</v>
+        <v>1.855140865158756</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.664376656573381</v>
+        <v>0.8033587139699137</v>
       </c>
       <c r="C20">
-        <v>0.1009133598398435</v>
+        <v>0.06444337440139947</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0726531614810213</v>
+        <v>0.08683904915434582</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.6503493743611415</v>
+        <v>1.008818535143206</v>
       </c>
       <c r="H20">
-        <v>0.4642325124670634</v>
+        <v>1.023627779875582</v>
       </c>
       <c r="I20">
-        <v>0.482341106061881</v>
+        <v>0.9863502642506035</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.448931863378448</v>
+        <v>0.5541464748158944</v>
       </c>
       <c r="L20">
-        <v>0.3760419125467678</v>
+        <v>0.2444085073353079</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7821539103974748</v>
+        <v>1.847975224985132</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.878956912637875</v>
+        <v>0.8607668367791632</v>
       </c>
       <c r="C21">
-        <v>0.1110762963041623</v>
+        <v>0.067616072903391</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.07949910347285538</v>
+        <v>0.08810115845555089</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.6828794790509107</v>
+        <v>1.007942581160236</v>
       </c>
       <c r="H21">
-        <v>0.4703430351554516</v>
+        <v>1.017991616420261</v>
       </c>
       <c r="I21">
-        <v>0.4894129936319231</v>
+        <v>0.9804524709208593</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.63866418559391</v>
+        <v>0.6065740451950319</v>
       </c>
       <c r="L21">
-        <v>0.4221333248744941</v>
+        <v>0.255449198879532</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7249725286197126</v>
+        <v>1.82464978528224</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.020529422723655</v>
+        <v>0.8985144802032323</v>
       </c>
       <c r="C22">
-        <v>0.1177778397599667</v>
+        <v>0.06967293664935426</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.08407064788069363</v>
+        <v>0.08896031001271609</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.706047359866588</v>
+        <v>1.007911908134957</v>
       </c>
       <c r="H22">
-        <v>0.4753596195888292</v>
+        <v>1.014694792992159</v>
       </c>
       <c r="I22">
-        <v>0.495266407945266</v>
+        <v>0.9770244372158388</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.76379413550157</v>
+        <v>0.6409519994677453</v>
       </c>
       <c r="L22">
-        <v>0.4527338965394705</v>
+        <v>0.262770256818925</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6890541323162829</v>
+        <v>1.809964803227519</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.944837523275396</v>
+        <v>0.878347162347211</v>
       </c>
       <c r="C23">
-        <v>0.1141949548410821</v>
+        <v>0.06857667271916057</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.08162134361379714</v>
+        <v>0.08849863380405765</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.6934984883718158</v>
+        <v>1.007878646001302</v>
       </c>
       <c r="H23">
-        <v>0.4725844361081499</v>
+        <v>1.016418986033344</v>
       </c>
       <c r="I23">
-        <v>0.4920245170112381</v>
+        <v>0.9788150009347945</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.696897300108816</v>
+        <v>0.6225935808053578</v>
       </c>
       <c r="L23">
-        <v>0.4363551009337812</v>
+        <v>0.2588532536242525</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.708087349868169</v>
+        <v>1.817751226467383</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.660889751850846</v>
+        <v>0.8024242997498163</v>
       </c>
       <c r="C24">
-        <v>0.1007481048015677</v>
+        <v>0.06439123603625063</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.07254280716798789</v>
+        <v>0.08681900101563045</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.6498479020813193</v>
+        <v>1.008841986392397</v>
       </c>
       <c r="H24">
-        <v>0.4641490159083332</v>
+        <v>1.02372642955288</v>
       </c>
       <c r="I24">
-        <v>0.4822452007174363</v>
+        <v>0.9864538574873265</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.445847829373236</v>
+        <v>0.5532915181887859</v>
       </c>
       <c r="L24">
-        <v>0.3752959713519743</v>
+        <v>0.2442298357133268</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7831121385113642</v>
+        <v>1.848365906836634</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.359368686754351</v>
+        <v>0.7215267032461554</v>
       </c>
       <c r="C25">
-        <v>0.08643314644826461</v>
+        <v>0.05980463188654284</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.06312240793569401</v>
+        <v>0.0851551320170536</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.6100847219054515</v>
+        <v>1.012201534414203</v>
       </c>
       <c r="H25">
-        <v>0.4590517895982202</v>
+        <v>1.033269379746841</v>
       </c>
       <c r="I25">
-        <v>0.4764988890590729</v>
+        <v>0.9965231682644387</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.179016795331876</v>
+        <v>0.4790380192473833</v>
       </c>
       <c r="L25">
-        <v>0.3111952385535517</v>
+        <v>0.228910338387081</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8698830982495558</v>
+        <v>1.883788263061899</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_51/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6628252533777754</v>
+        <v>1.140441849447427</v>
       </c>
       <c r="C2">
-        <v>0.05636454526420209</v>
+        <v>0.07598864113341364</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.08405757332559816</v>
+        <v>0.05645837071066495</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>1.016663603098138</v>
+        <v>0.5862188352014925</v>
       </c>
       <c r="H2">
-        <v>1.041725090818716</v>
+        <v>0.4583448751698995</v>
       </c>
       <c r="I2">
-        <v>1.005509539630399</v>
+        <v>0.4759057484957161</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.424796154726323</v>
+        <v>0.9850312069311258</v>
       </c>
       <c r="L2">
-        <v>0.2180205523869745</v>
+        <v>0.2652115477229415</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.911934984869209</v>
+        <v>0.9384144764406974</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6235849028883536</v>
+        <v>0.9935377773187781</v>
       </c>
       <c r="C3">
-        <v>0.05399335241401104</v>
+        <v>0.06893986189155044</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.08339352120374954</v>
+        <v>0.052089951777468</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>1.020924513557887</v>
+        <v>0.573018928865352</v>
       </c>
       <c r="H3">
-        <v>1.048347776992102</v>
+        <v>0.4595866593747786</v>
       </c>
       <c r="I3">
-        <v>1.012580043170352</v>
+        <v>0.4775492707749827</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.388305896346651</v>
+        <v>0.8546938116006118</v>
       </c>
       <c r="L3">
-        <v>0.2108835005249006</v>
+        <v>0.2346680494203781</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.932299460346287</v>
+        <v>0.9875800021908292</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5997605487285966</v>
+        <v>0.9039227526866114</v>
       </c>
       <c r="C4">
-        <v>0.0525176477162006</v>
+        <v>0.06461750139154532</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.08302523262647554</v>
+        <v>0.04947397650967922</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>1.024149801122419</v>
+        <v>0.566258676065118</v>
       </c>
       <c r="H4">
-        <v>1.05285443413851</v>
+        <v>0.4611432396589947</v>
       </c>
       <c r="I4">
-        <v>1.017404798925682</v>
+        <v>0.4794989179769651</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3660349307352817</v>
+        <v>0.7750966727305411</v>
       </c>
       <c r="L4">
-        <v>0.2066213008989735</v>
+        <v>0.2161785496607393</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.94543939277232</v>
+        <v>1.019056330632255</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5901201821920381</v>
+        <v>0.8675322754124295</v>
       </c>
       <c r="C5">
-        <v>0.05191130000524424</v>
+        <v>0.06285630047970869</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.08288509085488904</v>
+        <v>0.04842368424684906</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>1.025617162556422</v>
+        <v>0.5638247843702047</v>
       </c>
       <c r="H5">
-        <v>1.054801691921583</v>
+        <v>0.4619695842465887</v>
       </c>
       <c r="I5">
-        <v>1.019492478761617</v>
+        <v>0.4805203109078633</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3569934281344729</v>
+        <v>0.742751386616618</v>
       </c>
       <c r="L5">
-        <v>0.2049146490264775</v>
+        <v>0.2087046979793143</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.95095394709097</v>
+        <v>1.03219948424421</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5885235440301813</v>
+        <v>0.861496892427084</v>
       </c>
       <c r="C6">
-        <v>0.05181031494933563</v>
+        <v>0.06256383213207783</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.08286242131253907</v>
+        <v>0.04825020855123618</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>1.02587005582469</v>
+        <v>0.563439539923003</v>
       </c>
       <c r="H6">
-        <v>1.055131723356823</v>
+        <v>0.4621181795141638</v>
       </c>
       <c r="I6">
-        <v>1.019846477567835</v>
+        <v>0.4807033447462459</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3554941632393991</v>
+        <v>0.7373855036935026</v>
       </c>
       <c r="L6">
-        <v>0.2046330883012928</v>
+        <v>0.2074671799497168</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.951879293246941</v>
+        <v>1.034400780471495</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5996302583457691</v>
+        <v>0.9034314821012401</v>
       </c>
       <c r="C7">
-        <v>0.05250949050240195</v>
+        <v>0.06459374997943002</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.08302330235582289</v>
+        <v>0.04945974935844255</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>1.024168971024494</v>
+        <v>0.5662245741648064</v>
       </c>
       <c r="H7">
-        <v>1.052880247028156</v>
+        <v>0.4611536163605336</v>
       </c>
       <c r="I7">
-        <v>1.017432461960478</v>
+        <v>0.479511786483048</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3659128553474602</v>
+        <v>0.774660105514215</v>
       </c>
       <c r="L7">
-        <v>0.2065981619189472</v>
+        <v>0.2160775159465516</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.945513116474347</v>
+        <v>1.019232313021401</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6492395652282426</v>
+        <v>1.089656387102224</v>
       </c>
       <c r="C8">
-        <v>0.05555105632500101</v>
+        <v>0.07355629768148475</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.08382043399625871</v>
+        <v>0.05493781978033496</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>1.01800627501261</v>
+        <v>0.581377855031036</v>
       </c>
       <c r="H8">
-        <v>1.0439172326099</v>
+        <v>0.4586034844748497</v>
       </c>
       <c r="I8">
-        <v>1.007847104051979</v>
+        <v>0.4762712955785915</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4121866588764931</v>
+        <v>0.9399908995300734</v>
       </c>
       <c r="L8">
-        <v>0.2155348281117568</v>
+        <v>0.2546217561049104</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.918824632469081</v>
+        <v>0.9550945665637371</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7486435632488337</v>
+        <v>1.460393478759926</v>
       </c>
       <c r="C9">
-        <v>0.06135935063794307</v>
+        <v>0.09123606722412347</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.08569582341913318</v>
+        <v>0.0662503441045601</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>1.010760509782884</v>
+        <v>0.6225820649968625</v>
       </c>
       <c r="H9">
-        <v>1.029832870115868</v>
+        <v>0.4602704444857295</v>
       </c>
       <c r="I9">
-        <v>0.9928869800629627</v>
+        <v>0.477838077770194</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5039836603803565</v>
+        <v>1.268454901238727</v>
       </c>
       <c r="L9">
-        <v>0.2340101386414375</v>
+        <v>0.3325800027565435</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.87153545076783</v>
+        <v>0.8399085180928694</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.822953323261288</v>
+        <v>1.737534451823052</v>
       </c>
       <c r="C10">
-        <v>0.06553287215865566</v>
+        <v>0.1043795596509796</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.08726327173333814</v>
+        <v>0.07497525475809397</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>1.008397564118781</v>
+        <v>0.661075278498032</v>
       </c>
       <c r="H10">
-        <v>1.02161236890035</v>
+        <v>0.466103851934335</v>
       </c>
       <c r="I10">
-        <v>0.9842364537948711</v>
+        <v>0.4844969916782205</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5720624383335178</v>
+        <v>1.513629921529628</v>
       </c>
       <c r="L10">
-        <v>0.2481631999587819</v>
+        <v>0.3917152128583439</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.839867594846749</v>
+        <v>0.7622693873534487</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8570335157829732</v>
+        <v>1.864978022839892</v>
       </c>
       <c r="C11">
-        <v>0.06741145953991179</v>
+        <v>0.1104145104956444</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.08801737477945437</v>
+        <v>0.07904997720860862</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>1.007967780790409</v>
+        <v>0.6806633373985989</v>
       </c>
       <c r="H11">
-        <v>1.018334290401683</v>
+        <v>0.4698887806868868</v>
       </c>
       <c r="I11">
-        <v>0.9808097856899636</v>
+        <v>0.4888846097952282</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6031701545722683</v>
+        <v>1.626306986671835</v>
       </c>
       <c r="L11">
-        <v>0.2547276317861531</v>
+        <v>0.4191198262628717</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.826128638299531</v>
+        <v>0.7285944522457015</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8699781253475578</v>
+        <v>1.913464065985522</v>
       </c>
       <c r="C12">
-        <v>0.06811997771788469</v>
+        <v>0.1127098389078185</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.08830882177360877</v>
+        <v>0.08060956201133962</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>1.007897972551575</v>
+        <v>0.6884058392758021</v>
       </c>
       <c r="H12">
-        <v>1.017159303219444</v>
+        <v>0.4714965083334732</v>
       </c>
       <c r="I12">
-        <v>0.9795853510914654</v>
+        <v>0.4907560854285933</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6149694759843669</v>
+        <v>1.669166645105577</v>
       </c>
       <c r="L12">
-        <v>0.2572315149997593</v>
+        <v>0.4295784518126879</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.821021982728869</v>
+        <v>0.7160906976501797</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8671885383119502</v>
+        <v>1.903011197883046</v>
       </c>
       <c r="C13">
-        <v>0.06796751279441082</v>
+        <v>0.1122150195642604</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.08824579205536409</v>
+        <v>0.08027291738572018</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>1.007908870668317</v>
+        <v>0.6867234627129903</v>
       </c>
       <c r="H13">
-        <v>1.01740940692595</v>
+        <v>0.4711422990806966</v>
       </c>
       <c r="I13">
-        <v>0.9798457999431065</v>
+        <v>0.4903434458622584</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6124274197237582</v>
+        <v>1.659927097373014</v>
       </c>
       <c r="L13">
-        <v>0.2566914560409828</v>
+        <v>0.4273222481650407</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.82211752179408</v>
+        <v>0.7187723668612715</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8580976945362693</v>
+        <v>1.868962297778921</v>
       </c>
       <c r="C14">
-        <v>0.06746980706385841</v>
+        <v>0.1106031356609236</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.08804123448033252</v>
+        <v>0.0791779447685208</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>1.007960173954004</v>
+        <v>0.6812936483169238</v>
       </c>
       <c r="H14">
-        <v>1.018236293792867</v>
+        <v>0.4700174823160097</v>
       </c>
       <c r="I14">
-        <v>0.9807075839974146</v>
+        <v>0.4890342811428923</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6041405031744489</v>
+        <v>1.6298290830658</v>
       </c>
       <c r="L14">
-        <v>0.2549332658668817</v>
+        <v>0.4199785865327925</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.825706586390728</v>
+        <v>0.7275607150492895</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8525343762622697</v>
+        <v>1.848136679362312</v>
       </c>
       <c r="C15">
-        <v>0.06716457548058941</v>
+        <v>0.1096171774930923</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.08791670279786246</v>
+        <v>0.07850944351659095</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>1.008003707521382</v>
+        <v>0.6780108577486885</v>
       </c>
       <c r="H15">
-        <v>1.018751426361391</v>
+        <v>0.4693515841167937</v>
       </c>
       <c r="I15">
-        <v>0.9812449819927096</v>
+        <v>0.4882601787073071</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.599067056026314</v>
+        <v>1.611418916820924</v>
       </c>
       <c r="L15">
-        <v>0.2538586757033698</v>
+        <v>0.4154912105425126</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.82791749537721</v>
+        <v>0.7329765244749229</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8207316153344664</v>
+        <v>1.729235710733576</v>
       </c>
       <c r="C16">
-        <v>0.06540970103819177</v>
+        <v>0.1039864520555938</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.08721481388542784</v>
+        <v>0.07471120462217584</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>1.008438647892234</v>
+        <v>0.6598391495223126</v>
       </c>
       <c r="H16">
-        <v>1.021835884210788</v>
+        <v>0.4658802489501994</v>
       </c>
       <c r="I16">
-        <v>0.9844706310690228</v>
+        <v>0.4842388124539028</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5700322264317208</v>
+        <v>1.506291487107859</v>
       </c>
       <c r="L16">
-        <v>0.2477367316913899</v>
+        <v>0.3899351186204285</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.840778895371604</v>
+        <v>0.7645041903994825</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8012920277897706</v>
+        <v>1.656664713210944</v>
       </c>
       <c r="C17">
-        <v>0.06432803465352777</v>
+        <v>0.1005478610943484</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.08679473056313114</v>
+        <v>0.07240913236952196</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>1.008870826017869</v>
+        <v>0.6492414799778317</v>
       </c>
       <c r="H17">
-        <v>1.023846285984263</v>
+        <v>0.4640485495986013</v>
       </c>
       <c r="I17">
-        <v>0.9865797356599018</v>
+        <v>0.4821298412855199</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5522554542966986</v>
+        <v>1.442110900244444</v>
       </c>
       <c r="L17">
-        <v>0.2440133787261516</v>
+        <v>0.374392258723887</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.848839821094575</v>
+        <v>0.7842745091898777</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7901369318084903</v>
+        <v>1.615050963891747</v>
       </c>
       <c r="C18">
-        <v>0.06370400867225356</v>
+        <v>0.09857520824740362</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.08655697599903434</v>
+        <v>0.07109490409600738</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>1.00918011605863</v>
+        <v>0.6433398237262651</v>
       </c>
       <c r="H18">
-        <v>1.025046051984788</v>
+        <v>0.4631007298162189</v>
       </c>
       <c r="I18">
-        <v>0.9878406962825039</v>
+        <v>0.4810437415908879</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5420437694558586</v>
+        <v>1.405302055767805</v>
       </c>
       <c r="L18">
-        <v>0.2418836805917692</v>
+        <v>0.3654992730810847</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.853539019590877</v>
+        <v>0.7957998054120639</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7863644973311636</v>
+        <v>1.600982262557693</v>
       </c>
       <c r="C19">
-        <v>0.06349240100600184</v>
+        <v>0.09790812600346044</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.08647714103836179</v>
+        <v>0.07065158261562487</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>1.009295258564904</v>
+        <v>0.6413741501488914</v>
       </c>
       <c r="H19">
-        <v>1.025459732606706</v>
+        <v>0.4627976282118169</v>
       </c>
       <c r="I19">
-        <v>0.9882758543205981</v>
+        <v>0.4806973778809578</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5385885206428895</v>
+        <v>1.392856666428287</v>
       </c>
       <c r="L19">
-        <v>0.241164643011345</v>
+        <v>0.3624960550130112</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.855140865158756</v>
+        <v>0.7997281628487647</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8033587139699137</v>
+        <v>1.66437665657341</v>
       </c>
       <c r="C20">
-        <v>0.06444337440139947</v>
+        <v>0.1009133598398364</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.08683904915434582</v>
+        <v>0.07265316148100354</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.008818535143206</v>
+        <v>0.6503493743611841</v>
       </c>
       <c r="H20">
-        <v>1.023627779875582</v>
+        <v>0.4642325124670634</v>
       </c>
       <c r="I20">
-        <v>0.9863502642506035</v>
+        <v>0.4823411060618881</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5541464748158944</v>
+        <v>1.448931863378618</v>
       </c>
       <c r="L20">
-        <v>0.2444085073353079</v>
+        <v>0.3760419125467536</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.847975224985132</v>
+        <v>0.7821539103974642</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8607668367791632</v>
+        <v>1.878956912637818</v>
       </c>
       <c r="C21">
-        <v>0.067616072903391</v>
+        <v>0.1110762963040486</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.08810115845555089</v>
+        <v>0.07949910347287314</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.007942581160236</v>
+        <v>0.6828794790508681</v>
       </c>
       <c r="H21">
-        <v>1.017991616420261</v>
+        <v>0.4703430351555653</v>
       </c>
       <c r="I21">
-        <v>0.9804524709208593</v>
+        <v>0.4894129936319587</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6065740451950319</v>
+        <v>1.638664185593939</v>
       </c>
       <c r="L21">
-        <v>0.255449198879532</v>
+        <v>0.4221333248745651</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.82464978528224</v>
+        <v>0.7249725286196753</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8985144802032323</v>
+        <v>2.020529422723655</v>
       </c>
       <c r="C22">
-        <v>0.06967293664935426</v>
+        <v>0.1177778397599525</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.08896031001271609</v>
+        <v>0.08407064788069363</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>1.007911908134957</v>
+        <v>0.7060473598666022</v>
       </c>
       <c r="H22">
-        <v>1.014694792992159</v>
+        <v>0.4753596195888292</v>
       </c>
       <c r="I22">
-        <v>0.9770244372158388</v>
+        <v>0.495266407945266</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6409519994677453</v>
+        <v>1.763794135501684</v>
       </c>
       <c r="L22">
-        <v>0.262770256818925</v>
+        <v>0.4527338965393994</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.809964803227519</v>
+        <v>0.6890541323162758</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.878347162347211</v>
+        <v>1.944837523275652</v>
       </c>
       <c r="C23">
-        <v>0.06857667271916057</v>
+        <v>0.1141949548412242</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.08849863380405765</v>
+        <v>0.08162134361379003</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>1.007878646001302</v>
+        <v>0.69349848837183</v>
       </c>
       <c r="H23">
-        <v>1.016418986033344</v>
+        <v>0.472584436108022</v>
       </c>
       <c r="I23">
-        <v>0.9788150009347945</v>
+        <v>0.4920245170112523</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6225935808053578</v>
+        <v>1.696897300108816</v>
       </c>
       <c r="L23">
-        <v>0.2588532536242525</v>
+        <v>0.4363551009337527</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.817751226467383</v>
+        <v>0.7080873498681663</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8024242997498163</v>
+        <v>1.660889751850846</v>
       </c>
       <c r="C24">
-        <v>0.06439123603625063</v>
+        <v>0.1007481048015677</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.08681900101563045</v>
+        <v>0.0725428071680021</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>1.008841986392397</v>
+        <v>0.649847902081234</v>
       </c>
       <c r="H24">
-        <v>1.02372642955288</v>
+        <v>0.4641490159084469</v>
       </c>
       <c r="I24">
-        <v>0.9864538574873265</v>
+        <v>0.4822452007174149</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5532915181887859</v>
+        <v>1.44584782937315</v>
       </c>
       <c r="L24">
-        <v>0.2442298357133268</v>
+        <v>0.3752959713519886</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.848365906836634</v>
+        <v>0.7831121385113642</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7215267032461554</v>
+        <v>1.359368686754323</v>
       </c>
       <c r="C25">
-        <v>0.05980463188654284</v>
+        <v>0.08643314644826461</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0851551320170536</v>
+        <v>0.06312240793573665</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>1.012201534414203</v>
+        <v>0.6100847219054941</v>
       </c>
       <c r="H25">
-        <v>1.033269379746841</v>
+        <v>0.4590517895983339</v>
       </c>
       <c r="I25">
-        <v>0.9965231682644387</v>
+        <v>0.47649888905908</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4790380192473833</v>
+        <v>1.179016795331847</v>
       </c>
       <c r="L25">
-        <v>0.228910338387081</v>
+        <v>0.3111952385535943</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.883788263061899</v>
+        <v>0.8698830982495505</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_51/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.140441849447427</v>
+        <v>0.7746265501654648</v>
       </c>
       <c r="C2">
-        <v>0.07598864113341364</v>
+        <v>0.154675359803548</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05645837071066495</v>
+        <v>0.344215704508045</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.5862188352014925</v>
+        <v>0.542889682699581</v>
       </c>
       <c r="H2">
-        <v>0.4583448751698995</v>
+        <v>7.682871878000874E-05</v>
       </c>
       <c r="I2">
-        <v>0.4759057484957161</v>
+        <v>0.001405833454303451</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4303166553209365</v>
       </c>
       <c r="K2">
-        <v>0.9850312069311258</v>
+        <v>0.3953025869873201</v>
       </c>
       <c r="L2">
-        <v>0.2652115477229415</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8799553100982962</v>
       </c>
       <c r="N2">
-        <v>0.9384144764406974</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.5918912740537436</v>
+      </c>
+      <c r="P2">
+        <v>0.9378388814682754</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9935377773187781</v>
+        <v>0.6737163434933677</v>
       </c>
       <c r="C3">
-        <v>0.06893986189155044</v>
+        <v>0.1346855649209431</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.052089951777468</v>
+        <v>0.3008859948573956</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.573018928865352</v>
+        <v>0.5206690075050062</v>
       </c>
       <c r="H3">
-        <v>0.4595866593747786</v>
+        <v>0.000482732724535806</v>
       </c>
       <c r="I3">
-        <v>0.4775492707749827</v>
+        <v>0.002296517734910797</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4244009742452448</v>
       </c>
       <c r="K3">
-        <v>0.8546938116006118</v>
+        <v>0.3910708113133126</v>
       </c>
       <c r="L3">
-        <v>0.2346680494203781</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7651653957492215</v>
       </c>
       <c r="N3">
-        <v>0.9875800021908292</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.5155258171618158</v>
+      </c>
+      <c r="P3">
+        <v>0.9689909941920281</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9039227526866114</v>
+        <v>0.6114430144874916</v>
       </c>
       <c r="C4">
-        <v>0.06461750139154532</v>
+        <v>0.1225825728000558</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04947397650967922</v>
+        <v>0.2743040108086774</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.566258676065118</v>
+        <v>0.5073437390258846</v>
       </c>
       <c r="H4">
-        <v>0.4611432396589947</v>
+        <v>0.0009225374061656577</v>
       </c>
       <c r="I4">
-        <v>0.4794989179769651</v>
+        <v>0.003047304802575201</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4209949392259702</v>
       </c>
       <c r="K4">
-        <v>0.7750966727305411</v>
+        <v>0.3886208854563371</v>
       </c>
       <c r="L4">
-        <v>0.2161785496607393</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6946375739997563</v>
       </c>
       <c r="N4">
-        <v>1.019056330632255</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.4686407269210306</v>
+      </c>
+      <c r="P4">
+        <v>0.9885964457168344</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8675322754124295</v>
+        <v>0.5852325086261487</v>
       </c>
       <c r="C5">
-        <v>0.06285630047970869</v>
+        <v>0.1179624696938362</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04842368424684906</v>
+        <v>0.2634926041520913</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.5638247843702047</v>
+        <v>0.5012432036987491</v>
       </c>
       <c r="H5">
-        <v>0.4619695842465887</v>
+        <v>0.001148274986228159</v>
       </c>
       <c r="I5">
-        <v>0.4805203109078633</v>
+        <v>0.003478397292366431</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.419276456622427</v>
       </c>
       <c r="K5">
-        <v>0.742751386616618</v>
+        <v>0.3871469805431893</v>
       </c>
       <c r="L5">
-        <v>0.2087046979793143</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6656345856906825</v>
       </c>
       <c r="N5">
-        <v>1.03219948424421</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.4494743238131207</v>
+      </c>
+      <c r="P5">
+        <v>0.9963990788295298</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.861496892427084</v>
+        <v>0.579954845208249</v>
       </c>
       <c r="C6">
-        <v>0.06256383213207783</v>
+        <v>0.1175326964218328</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04825020855123618</v>
+        <v>0.2617205964057803</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.563439539923003</v>
+        <v>0.4993250391719286</v>
       </c>
       <c r="H6">
-        <v>0.4621181795141638</v>
+        <v>0.001189649341237997</v>
       </c>
       <c r="I6">
-        <v>0.4807033447462459</v>
+        <v>0.003653348396975176</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4185241654900125</v>
       </c>
       <c r="K6">
-        <v>0.7373855036935026</v>
+        <v>0.386280745435144</v>
       </c>
       <c r="L6">
-        <v>0.2074671799497168</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6605189235117166</v>
       </c>
       <c r="N6">
-        <v>1.034400780471495</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.4462222941937313</v>
+      </c>
+      <c r="P6">
+        <v>0.9973337444949948</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9034314821012401</v>
+        <v>0.6085664657666143</v>
       </c>
       <c r="C7">
-        <v>0.06459374997943002</v>
+        <v>0.1234371096188909</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04945974935844255</v>
+        <v>0.2742217176741946</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.5662245741648064</v>
+        <v>0.5047768300356097</v>
       </c>
       <c r="H7">
-        <v>0.4611536163605336</v>
+        <v>0.0009282192201292006</v>
       </c>
       <c r="I7">
-        <v>0.479511786483048</v>
+        <v>0.003310969093436533</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4196890079065128</v>
       </c>
       <c r="K7">
-        <v>0.774660105514215</v>
+        <v>0.3868986252036812</v>
       </c>
       <c r="L7">
-        <v>0.2160775159465516</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.6934280837030968</v>
       </c>
       <c r="N7">
-        <v>1.019232313021401</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.4681927292528343</v>
+      </c>
+      <c r="P7">
+        <v>0.9877129650118182</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.089656387102224</v>
+        <v>0.7365209225013416</v>
       </c>
       <c r="C8">
-        <v>0.07355629768148475</v>
+        <v>0.1489679314103256</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05493781978033496</v>
+        <v>0.3293533631893837</v>
       </c>
       <c r="F8">
-        <v>1.39074283177348</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.581377855031036</v>
+        <v>0.531875113754424</v>
       </c>
       <c r="H8">
-        <v>0.4586034844748497</v>
+        <v>0.000177329398507009</v>
       </c>
       <c r="I8">
-        <v>0.4762712955785915</v>
+        <v>0.001976637721739394</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4265402764850847</v>
       </c>
       <c r="K8">
-        <v>0.9399908995300734</v>
+        <v>0.3915685739831254</v>
       </c>
       <c r="L8">
-        <v>0.2546217561049104</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.8392837695370474</v>
       </c>
       <c r="N8">
-        <v>0.9550945665637371</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.5653021860010981</v>
+      </c>
+      <c r="P8">
+        <v>0.9472514515737434</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.460393478759926</v>
+        <v>0.9896523174819549</v>
       </c>
       <c r="C9">
-        <v>0.09123606722412347</v>
+        <v>0.198933239244937</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0662503441045601</v>
+        <v>0.4377069628957528</v>
       </c>
       <c r="F9">
-        <v>1.895061171842812</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.6225820649968625</v>
+        <v>0.5922737564334142</v>
       </c>
       <c r="H9">
-        <v>0.4602704444857295</v>
+        <v>0.0003280022567906382</v>
       </c>
       <c r="I9">
-        <v>0.477838077770194</v>
+        <v>0.0007016251532512285</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.4441763592722481</v>
       </c>
       <c r="K9">
-        <v>1.268454901238727</v>
+        <v>0.4050353430702671</v>
       </c>
       <c r="L9">
-        <v>0.3325800027565435</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.12677159151778</v>
       </c>
       <c r="N9">
-        <v>0.8399085180928694</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.7563447184064316</v>
+      </c>
+      <c r="P9">
+        <v>0.8734922545012882</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.737534451823052</v>
+        <v>1.17152183996015</v>
       </c>
       <c r="C10">
-        <v>0.1043795596509796</v>
+        <v>0.2351342586989773</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.07497525475809397</v>
+        <v>0.4856053634908477</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.661075278498032</v>
+        <v>0.625119780855556</v>
       </c>
       <c r="H10">
-        <v>0.466103851934335</v>
+        <v>0.00161844032951608</v>
       </c>
       <c r="I10">
-        <v>0.4844969916782205</v>
+        <v>0.001089292932922703</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.4515925893093709</v>
       </c>
       <c r="K10">
-        <v>1.513629921529628</v>
+        <v>0.4085728827240054</v>
       </c>
       <c r="L10">
-        <v>0.3917152128583439</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.333532960752706</v>
       </c>
       <c r="N10">
-        <v>0.7622693873534487</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.8647878726983578</v>
+      </c>
+      <c r="P10">
+        <v>0.8181804452030565</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.864978022839892</v>
+        <v>1.235937182920708</v>
       </c>
       <c r="C11">
-        <v>0.1104145104956444</v>
+        <v>0.234313709330678</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.07904997720860862</v>
+        <v>0.2690267530504613</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.6806633373985989</v>
+        <v>0.5334440424446001</v>
       </c>
       <c r="H11">
-        <v>0.4698887806868868</v>
+        <v>0.01973641389345104</v>
       </c>
       <c r="I11">
-        <v>0.4888846097952282</v>
+        <v>0.00176917216821515</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.4010964939109698</v>
       </c>
       <c r="K11">
-        <v>1.626306986671835</v>
+        <v>0.3548162719808907</v>
       </c>
       <c r="L11">
-        <v>0.4191198262628717</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.386653705157755</v>
       </c>
       <c r="N11">
-        <v>0.7285944522457015</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.6533033957606094</v>
+      </c>
+      <c r="P11">
+        <v>0.7754453608130749</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.913464065985522</v>
+        <v>1.256003542206258</v>
       </c>
       <c r="C12">
-        <v>0.1127098389078185</v>
+        <v>0.2246897803317296</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.08060956201133962</v>
+        <v>0.1315068549091194</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.6884058392758021</v>
+        <v>0.4584964768900477</v>
       </c>
       <c r="H12">
-        <v>0.4714965083334732</v>
+        <v>0.0580452115246004</v>
       </c>
       <c r="I12">
-        <v>0.4907560854285933</v>
+        <v>0.001786354362262266</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3612963927897965</v>
       </c>
       <c r="K12">
-        <v>1.669166645105577</v>
+        <v>0.3146657141085747</v>
       </c>
       <c r="L12">
-        <v>0.4295784518126879</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.38871833519562</v>
       </c>
       <c r="N12">
-        <v>0.7160906976501797</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.4791563615512473</v>
+      </c>
+      <c r="P12">
+        <v>0.7664340861408814</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.903011197883046</v>
+        <v>1.238890480354655</v>
       </c>
       <c r="C13">
-        <v>0.1122150195642604</v>
+        <v>0.2092546835837368</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.08027291738572018</v>
+        <v>0.04659778944438564</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.6867234627129903</v>
+        <v>0.3880975232294119</v>
       </c>
       <c r="H13">
-        <v>0.4711422990806966</v>
+        <v>0.1134662101690935</v>
       </c>
       <c r="I13">
-        <v>0.4903434458622584</v>
+        <v>0.001638571786156007</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3253092953153072</v>
       </c>
       <c r="K13">
-        <v>1.659927097373014</v>
+        <v>0.2798618282262346</v>
       </c>
       <c r="L13">
-        <v>0.4273222481650407</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.350255740213129</v>
       </c>
       <c r="N13">
-        <v>0.7187723668612715</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.3241811529563776</v>
+      </c>
+      <c r="P13">
+        <v>0.7799910718983654</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.868962297778921</v>
+        <v>1.209357915551863</v>
       </c>
       <c r="C14">
-        <v>0.1106031356609236</v>
+        <v>0.1962317718792832</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0791779447685208</v>
+        <v>0.01839235264260441</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.6812936483169238</v>
+        <v>0.3413975641522384</v>
       </c>
       <c r="H14">
-        <v>0.4700174823160097</v>
+        <v>0.1626253089213066</v>
       </c>
       <c r="I14">
-        <v>0.4890342811428923</v>
+        <v>0.00156198914335004</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3020235031918048</v>
       </c>
       <c r="K14">
-        <v>1.6298290830658</v>
+        <v>0.2581235055125397</v>
       </c>
       <c r="L14">
-        <v>0.4199785865327925</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.304939252733021</v>
       </c>
       <c r="N14">
-        <v>0.7275607150492895</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2288344058521758</v>
+      </c>
+      <c r="P14">
+        <v>0.8010317747110349</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.848136679362312</v>
+        <v>1.193208854743972</v>
       </c>
       <c r="C15">
-        <v>0.1096171774930923</v>
+        <v>0.1921471273894753</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.07850944351659095</v>
+        <v>0.01558279371348315</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.6780108577486885</v>
+        <v>0.329712298336915</v>
       </c>
       <c r="H15">
-        <v>0.4693515841167937</v>
+        <v>0.1750722906191271</v>
       </c>
       <c r="I15">
-        <v>0.4882601787073071</v>
+        <v>0.001630306216362065</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2965450406694572</v>
       </c>
       <c r="K15">
-        <v>1.611418916820924</v>
+        <v>0.2531555300879589</v>
       </c>
       <c r="L15">
-        <v>0.4154912105425126</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.285046768577018</v>
       </c>
       <c r="N15">
-        <v>0.7329765244749229</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2064354015657202</v>
+      </c>
+      <c r="P15">
+        <v>0.8092469378147982</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.729235710733576</v>
+        <v>1.117048521641095</v>
       </c>
       <c r="C16">
-        <v>0.1039864520555938</v>
+        <v>0.1805605447902821</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.07471120462217584</v>
+        <v>0.01535254501793615</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.6598391495223126</v>
+        <v>0.3291873370463563</v>
       </c>
       <c r="H16">
-        <v>0.4658802489501994</v>
+        <v>0.1620824739768665</v>
       </c>
       <c r="I16">
-        <v>0.4842388124539028</v>
+        <v>0.001586208942216061</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3000316717657086</v>
       </c>
       <c r="K16">
-        <v>1.506291487107859</v>
+        <v>0.257838112933733</v>
       </c>
       <c r="L16">
-        <v>0.3899351186204285</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.204102630403469</v>
       </c>
       <c r="N16">
-        <v>0.7645041903994825</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.1965227567054946</v>
+      </c>
+      <c r="P16">
+        <v>0.8263705374720516</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.656664713210944</v>
+        <v>1.074293616156353</v>
       </c>
       <c r="C17">
-        <v>0.1005478610943484</v>
+        <v>0.1785824186586069</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.07240913236952196</v>
+        <v>0.02480389469361199</v>
       </c>
       <c r="F17">
-        <v>2.164227570872086</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.6492414799778317</v>
+        <v>0.352954220500159</v>
       </c>
       <c r="H17">
-        <v>0.4640485495986013</v>
+        <v>0.1241842905439938</v>
       </c>
       <c r="I17">
-        <v>0.4821298412855199</v>
+        <v>0.001634115494494104</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3148436930722269</v>
       </c>
       <c r="K17">
-        <v>1.442110900244444</v>
+        <v>0.2726434243049312</v>
       </c>
       <c r="L17">
-        <v>0.374392258723887</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.166076242099308</v>
       </c>
       <c r="N17">
-        <v>0.7842745091898777</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2362548023910982</v>
+      </c>
+      <c r="P17">
+        <v>0.8278641466084942</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.615050963891747</v>
+        <v>1.057517294889806</v>
       </c>
       <c r="C18">
-        <v>0.09857520824740362</v>
+        <v>0.1840581270391652</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.07109490409600738</v>
+        <v>0.07042192256484725</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.6433398237262651</v>
+        <v>0.4047272577492436</v>
       </c>
       <c r="H18">
-        <v>0.4631007298162189</v>
+        <v>0.07133847393792081</v>
       </c>
       <c r="I18">
-        <v>0.4810437415908879</v>
+        <v>0.001418794219497421</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3431599124737232</v>
       </c>
       <c r="K18">
-        <v>1.405302055767805</v>
+        <v>0.3005527459632731</v>
       </c>
       <c r="L18">
-        <v>0.3654992730810847</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.161133811958621</v>
       </c>
       <c r="N18">
-        <v>0.7957998054120639</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.3369082737492946</v>
+      </c>
+      <c r="P18">
+        <v>0.8223132968874083</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.600982262557693</v>
+        <v>1.057941412927903</v>
       </c>
       <c r="C19">
-        <v>0.09790812600346044</v>
+        <v>0.1971335788290531</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.07065158261562487</v>
+        <v>0.182458397222959</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.6413741501488914</v>
+        <v>0.4765956145514139</v>
       </c>
       <c r="H19">
-        <v>0.4627976282118169</v>
+        <v>0.02624423516419228</v>
       </c>
       <c r="I19">
-        <v>0.4806973778809578</v>
+        <v>0.001531406223692855</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3806293016669002</v>
       </c>
       <c r="K19">
-        <v>1.392856666428287</v>
+        <v>0.3375189107408225</v>
       </c>
       <c r="L19">
-        <v>0.3624960550130112</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.18166641985232</v>
       </c>
       <c r="N19">
-        <v>0.7997281628487647</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.500400506673941</v>
+      </c>
+      <c r="P19">
+        <v>0.8217563631001088</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.66437665657341</v>
+        <v>1.115663900659115</v>
       </c>
       <c r="C20">
-        <v>0.1009133598398364</v>
+        <v>0.2283847251136706</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.07265316148100354</v>
+        <v>0.4718385010554087</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.6503493743611841</v>
+        <v>0.6081871899006757</v>
       </c>
       <c r="H20">
-        <v>0.4642325124670634</v>
+        <v>0.001175006029419112</v>
       </c>
       <c r="I20">
-        <v>0.4823411060618881</v>
+        <v>0.001668936300430524</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.4453878374897045</v>
       </c>
       <c r="K20">
-        <v>1.448931863378618</v>
+        <v>0.4021402287254254</v>
       </c>
       <c r="L20">
-        <v>0.3760419125467536</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.276354443627184</v>
       </c>
       <c r="N20">
-        <v>0.7821539103974642</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.8343448723424771</v>
+      </c>
+      <c r="P20">
+        <v>0.829982182250161</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.878956912637818</v>
+        <v>1.259019550260973</v>
       </c>
       <c r="C21">
-        <v>0.1110762963040486</v>
+        <v>0.2594615808299352</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.07949910347287314</v>
+        <v>0.5586021520420985</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.6828794790508681</v>
+        <v>0.6551008494766819</v>
       </c>
       <c r="H21">
-        <v>0.4703430351555653</v>
+        <v>0.002543720099713154</v>
       </c>
       <c r="I21">
-        <v>0.4894129936319587</v>
+        <v>0.002243657721408887</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.4621161839837384</v>
       </c>
       <c r="K21">
-        <v>1.638664185593939</v>
+        <v>0.4162962323724955</v>
       </c>
       <c r="L21">
-        <v>0.4221333248745651</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.442875718519957</v>
       </c>
       <c r="N21">
-        <v>0.7249725286196753</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.9679002917342956</v>
+      </c>
+      <c r="P21">
+        <v>0.7943065541054466</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.020529422723655</v>
+        <v>1.35515276891951</v>
       </c>
       <c r="C22">
-        <v>0.1177778397599525</v>
+        <v>0.2777338387521837</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.08407064788069363</v>
+        <v>0.5989869272966359</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.7060473598666022</v>
+        <v>0.6831722552010149</v>
       </c>
       <c r="H22">
-        <v>0.4753596195888292</v>
+        <v>0.003712820205156397</v>
       </c>
       <c r="I22">
-        <v>0.495266407945266</v>
+        <v>0.002586973966044681</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.4717960051259666</v>
       </c>
       <c r="K22">
-        <v>1.763794135501684</v>
+        <v>0.4246519196520708</v>
       </c>
       <c r="L22">
-        <v>0.4527338965393994</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.550792411789274</v>
       </c>
       <c r="N22">
-        <v>0.6890541323162758</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.039227834656685</v>
+      </c>
+      <c r="P22">
+        <v>0.7708024778355487</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.944837523275652</v>
+        <v>1.306944801656499</v>
       </c>
       <c r="C23">
-        <v>0.1141949548412242</v>
+        <v>0.2668295541908066</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.08162134361379003</v>
+        <v>0.5773395882045378</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.69349848837183</v>
+        <v>0.6710363711986247</v>
       </c>
       <c r="H23">
-        <v>0.472584436108022</v>
+        <v>0.003068526146170925</v>
       </c>
       <c r="I23">
-        <v>0.4920245170112523</v>
+        <v>0.002088458885328492</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.4680755150104829</v>
       </c>
       <c r="K23">
-        <v>1.696897300108816</v>
+        <v>0.4221300722956087</v>
       </c>
       <c r="L23">
-        <v>0.4363551009337527</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.494182340595444</v>
       </c>
       <c r="N23">
-        <v>0.7080873498681663</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.001375346142481</v>
+      </c>
+      <c r="P23">
+        <v>0.7841679314270689</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.660889751850846</v>
+        <v>1.119284285271902</v>
       </c>
       <c r="C24">
-        <v>0.1007481048015677</v>
+        <v>0.2279241701013461</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0725428071680021</v>
+        <v>0.4958228903770703</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.649847902081234</v>
+        <v>0.621697999063656</v>
       </c>
       <c r="H24">
-        <v>0.4641490159084469</v>
+        <v>0.001150106727109801</v>
       </c>
       <c r="I24">
-        <v>0.4822452007174149</v>
+        <v>0.001190926149877924</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.4523413477184306</v>
       </c>
       <c r="K24">
-        <v>1.44584782937315</v>
+        <v>0.4100073598477643</v>
       </c>
       <c r="L24">
-        <v>0.3752959713519886</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.278763585534676</v>
       </c>
       <c r="N24">
-        <v>0.7831121385113642</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.8580806470850888</v>
+      </c>
+      <c r="P24">
+        <v>0.8346091338711403</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.359368686754323</v>
+        <v>0.9167411499153673</v>
       </c>
       <c r="C25">
-        <v>0.08643314644826461</v>
+        <v>0.1869123258372269</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.06312240793573665</v>
+        <v>0.4084466332675589</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.6100847219054941</v>
+        <v>0.5711211161173679</v>
       </c>
       <c r="H25">
-        <v>0.4590517895983339</v>
+        <v>9.54846160219347E-05</v>
       </c>
       <c r="I25">
-        <v>0.47649888905908</v>
+        <v>0.001274138580344086</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.4368938045150799</v>
       </c>
       <c r="K25">
-        <v>1.179016795331847</v>
+        <v>0.3982026401601111</v>
       </c>
       <c r="L25">
-        <v>0.3111952385535943</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.047425526089086</v>
       </c>
       <c r="N25">
-        <v>0.8698830982495505</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0.7042438314003121</v>
+      </c>
+      <c r="P25">
+        <v>0.8914705377211476</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_51/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7746265501654648</v>
+        <v>0.7280773338095798</v>
       </c>
       <c r="C2">
-        <v>0.154675359803548</v>
+        <v>0.1691107483026144</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.344215704508045</v>
+        <v>0.3481814799185301</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.542889682699581</v>
+        <v>0.4658413413302611</v>
       </c>
       <c r="H2">
-        <v>7.682871878000874E-05</v>
+        <v>3.658943026940698E-05</v>
       </c>
       <c r="I2">
-        <v>0.001405833454303451</v>
+        <v>0.0009862096538437726</v>
       </c>
       <c r="J2">
-        <v>0.4303166553209365</v>
+        <v>0.4218783391966525</v>
       </c>
       <c r="K2">
-        <v>0.3953025869873201</v>
+        <v>0.3455073037911554</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1719026840737286</v>
       </c>
       <c r="M2">
-        <v>0.8799553100982962</v>
+        <v>0.09427895993839819</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5918912740537436</v>
+        <v>0.8665536355132986</v>
       </c>
       <c r="P2">
-        <v>0.9378388814682754</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.5892547551036884</v>
+      </c>
+      <c r="R2">
+        <v>0.8947744471576002</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6737163434933677</v>
+        <v>0.6373905810073097</v>
       </c>
       <c r="C3">
-        <v>0.1346855649209431</v>
+        <v>0.14537191907786</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3008859948573956</v>
+        <v>0.3048147773180929</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.5206690075050062</v>
+        <v>0.45231514981716</v>
       </c>
       <c r="H3">
-        <v>0.000482732724535806</v>
+        <v>0.0003481169434240705</v>
       </c>
       <c r="I3">
-        <v>0.002296517734910797</v>
+        <v>0.001521089376812057</v>
       </c>
       <c r="J3">
-        <v>0.4244009742452448</v>
+        <v>0.4160717525444326</v>
       </c>
       <c r="K3">
-        <v>0.3910708113133126</v>
+        <v>0.3453027154481063</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1761202683714487</v>
       </c>
       <c r="M3">
-        <v>0.7651653957492215</v>
+        <v>0.09127212241826399</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5155258171618158</v>
+        <v>0.7553304163756991</v>
       </c>
       <c r="P3">
-        <v>0.9689909941920281</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5137029025048889</v>
+      </c>
+      <c r="R3">
+        <v>0.9244564731222606</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6114430144874916</v>
+        <v>0.5812140353343409</v>
       </c>
       <c r="C4">
-        <v>0.1225825728000558</v>
+        <v>0.1310431942963248</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2743040108086774</v>
+        <v>0.2781998816478009</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.5073437390258846</v>
+        <v>0.4442980379706469</v>
       </c>
       <c r="H4">
-        <v>0.0009225374061656577</v>
+        <v>0.0007120584066599989</v>
       </c>
       <c r="I4">
-        <v>0.003047304802575201</v>
+        <v>0.002012072762410888</v>
       </c>
       <c r="J4">
-        <v>0.4209949392259702</v>
+        <v>0.4125090476119766</v>
       </c>
       <c r="K4">
-        <v>0.3886208854563371</v>
+        <v>0.3452347696236266</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1787427314802237</v>
       </c>
       <c r="M4">
-        <v>0.6946375739997563</v>
+        <v>0.08994540569776532</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.4686407269210306</v>
+        <v>0.6868866351504863</v>
       </c>
       <c r="P4">
-        <v>0.9885964457168344</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4672890956754472</v>
+      </c>
+      <c r="R4">
+        <v>0.9431950845892265</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5852325086261487</v>
+        <v>0.5574950120453934</v>
       </c>
       <c r="C5">
-        <v>0.1179624696938362</v>
+        <v>0.1255418554422221</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2634926041520913</v>
+        <v>0.2673722225159807</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.5012432036987491</v>
+        <v>0.4404324766206003</v>
       </c>
       <c r="H5">
-        <v>0.001148274986228159</v>
+        <v>0.0009024508927573116</v>
       </c>
       <c r="I5">
-        <v>0.003478397292366431</v>
+        <v>0.002338610844740074</v>
       </c>
       <c r="J5">
-        <v>0.419276456622427</v>
+        <v>0.4106951503071627</v>
       </c>
       <c r="K5">
-        <v>0.3871469805431893</v>
+        <v>0.3447724760964697</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1795974725911265</v>
       </c>
       <c r="M5">
-        <v>0.6656345856906825</v>
+        <v>0.08941910222229055</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.4494743238131207</v>
+        <v>0.6587200095513879</v>
       </c>
       <c r="P5">
-        <v>0.9963990788295298</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4483107441944298</v>
+      </c>
+      <c r="R5">
+        <v>0.9507391226639486</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.579954845208249</v>
+        <v>0.5526908635800396</v>
       </c>
       <c r="C6">
-        <v>0.1175326964218328</v>
+        <v>0.1249754007878892</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2617205964057803</v>
+        <v>0.2655965668879858</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.4993250391719286</v>
+        <v>0.4389826591674009</v>
       </c>
       <c r="H6">
-        <v>0.001189649341237997</v>
+        <v>0.0009374900411347475</v>
       </c>
       <c r="I6">
-        <v>0.003653348396975176</v>
+        <v>0.002510803289941244</v>
       </c>
       <c r="J6">
-        <v>0.4185241654900125</v>
+        <v>0.4099519652238826</v>
       </c>
       <c r="K6">
-        <v>0.386280745435144</v>
+        <v>0.3441504024912376</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1794696640963487</v>
       </c>
       <c r="M6">
-        <v>0.6605189235117166</v>
+        <v>0.08919795748197501</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.4462222941937313</v>
+        <v>0.6537565157013319</v>
       </c>
       <c r="P6">
-        <v>0.9973337444949948</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.445092588026057</v>
+      </c>
+      <c r="R6">
+        <v>0.9517364975009539</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6085664657666143</v>
+        <v>0.5779706430063527</v>
       </c>
       <c r="C7">
-        <v>0.1234371096188909</v>
+        <v>0.1313895825589384</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2742217176741946</v>
+        <v>0.2782361343522979</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.5047768300356097</v>
+        <v>0.4443155188409591</v>
       </c>
       <c r="H7">
-        <v>0.0009282192201292006</v>
+        <v>0.0007184534014312849</v>
       </c>
       <c r="I7">
-        <v>0.003310969093436533</v>
+        <v>0.002318092106825986</v>
       </c>
       <c r="J7">
-        <v>0.4196890079065128</v>
+        <v>0.4066067272927256</v>
       </c>
       <c r="K7">
-        <v>0.3868986252036812</v>
+        <v>0.3430735563518432</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1777133920909613</v>
       </c>
       <c r="M7">
-        <v>0.6934280837030968</v>
+        <v>0.08935326264285415</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.4681927292528343</v>
+        <v>0.6845121623459107</v>
       </c>
       <c r="P7">
-        <v>0.9877129650118182</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4665758330441463</v>
+      </c>
+      <c r="R7">
+        <v>0.9422636051207398</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7365209225013416</v>
+        <v>0.6918576790080806</v>
       </c>
       <c r="C8">
-        <v>0.1489679314103256</v>
+        <v>0.16037739776867</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3293533631893837</v>
+        <v>0.3337143368881499</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.531875113754424</v>
+        <v>0.4658501223517817</v>
       </c>
       <c r="H8">
-        <v>0.000177329398507009</v>
+        <v>0.0001100425276185923</v>
       </c>
       <c r="I8">
-        <v>0.001976637721739394</v>
+        <v>0.001502568301445351</v>
       </c>
       <c r="J8">
-        <v>0.4265402764850847</v>
+        <v>0.4031084452297264</v>
       </c>
       <c r="K8">
-        <v>0.3915685739831254</v>
+        <v>0.3413128539256611</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1715238367662906</v>
       </c>
       <c r="M8">
-        <v>0.8392837695370474</v>
+        <v>0.09185829692993686</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5653021860010981</v>
+        <v>0.8231111726823315</v>
       </c>
       <c r="P8">
-        <v>0.9472514515737434</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.562036171629309</v>
+      </c>
+      <c r="R8">
+        <v>0.9031451454768648</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9896523174819549</v>
+        <v>0.917642369318969</v>
       </c>
       <c r="C9">
-        <v>0.198933239244937</v>
+        <v>0.2195701994595112</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4377069628957528</v>
+        <v>0.4422094642941303</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.5922737564334142</v>
+        <v>0.5062305911460641</v>
       </c>
       <c r="H9">
-        <v>0.0003280022567906382</v>
+        <v>0.0003791774635988343</v>
       </c>
       <c r="I9">
-        <v>0.0007016251532512285</v>
+        <v>0.000806887025027514</v>
       </c>
       <c r="J9">
-        <v>0.4441763592722481</v>
+        <v>0.4149534489732076</v>
       </c>
       <c r="K9">
-        <v>0.4050353430702671</v>
+        <v>0.3434134839855858</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1619641127852063</v>
       </c>
       <c r="M9">
-        <v>1.12677159151778</v>
+        <v>0.1024125079492535</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7563447184064316</v>
+        <v>1.099780405287021</v>
       </c>
       <c r="P9">
-        <v>0.8734922545012882</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.7505742122404584</v>
+      </c>
+      <c r="R9">
+        <v>0.8329222441044595</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.17152183996015</v>
+        <v>1.076393983248636</v>
       </c>
       <c r="C10">
-        <v>0.2351342586989773</v>
+        <v>0.2590952360962007</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4856053634908477</v>
+        <v>0.4906773242255085</v>
       </c>
       <c r="F10">
         <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.625119780855556</v>
+        <v>0.5402354775392837</v>
       </c>
       <c r="H10">
-        <v>0.00161844032951608</v>
+        <v>0.001634055237135001</v>
       </c>
       <c r="I10">
-        <v>0.001089292932922703</v>
+        <v>0.001377863639035581</v>
       </c>
       <c r="J10">
-        <v>0.4515925893093709</v>
+        <v>0.3933918818978128</v>
       </c>
       <c r="K10">
-        <v>0.4085728827240054</v>
+        <v>0.3362687521616756</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1518980545647572</v>
       </c>
       <c r="M10">
-        <v>1.333532960752706</v>
+        <v>0.1090890514268068</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.8647878726983578</v>
+        <v>1.291093486110924</v>
       </c>
       <c r="P10">
-        <v>0.8181804452030565</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.8555692640010761</v>
+      </c>
+      <c r="R10">
+        <v>0.7820022395074342</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.235937182920708</v>
+        <v>1.136227437688433</v>
       </c>
       <c r="C11">
-        <v>0.234313709330678</v>
+        <v>0.2489761634027445</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2690267530504613</v>
+        <v>0.2735775192636396</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.5334440424446001</v>
+        <v>0.4881178947864981</v>
       </c>
       <c r="H11">
-        <v>0.01973641389345104</v>
+        <v>0.01971900982627162</v>
       </c>
       <c r="I11">
-        <v>0.00176917216821515</v>
+        <v>0.002151337815496035</v>
       </c>
       <c r="J11">
-        <v>0.4010964939109698</v>
+        <v>0.3114211440022245</v>
       </c>
       <c r="K11">
-        <v>0.3548162719808907</v>
+        <v>0.2869683380441046</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1318323911434831</v>
       </c>
       <c r="M11">
-        <v>1.386653705157755</v>
+        <v>0.09327825879372398</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6533033957606094</v>
+        <v>1.328905169196389</v>
       </c>
       <c r="P11">
-        <v>0.7754453608130749</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.6425124226512366</v>
+      </c>
+      <c r="R11">
+        <v>0.7631917877450896</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.256003542206258</v>
+        <v>1.15936084353163</v>
       </c>
       <c r="C12">
-        <v>0.2246897803317296</v>
+        <v>0.2330570796205507</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1315068549091194</v>
+        <v>0.1347528478905069</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.4584964768900477</v>
+        <v>0.4340817336180294</v>
       </c>
       <c r="H12">
-        <v>0.0580452115246004</v>
+        <v>0.05802608494619221</v>
       </c>
       <c r="I12">
-        <v>0.001786354362262266</v>
+        <v>0.002161063683066899</v>
       </c>
       <c r="J12">
-        <v>0.3612963927897965</v>
+        <v>0.2711174897342019</v>
       </c>
       <c r="K12">
-        <v>0.3146657141085747</v>
+        <v>0.2546015163093607</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1201657729896581</v>
       </c>
       <c r="M12">
-        <v>1.38871833519562</v>
+        <v>0.08106998111196972</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.4791563615512473</v>
+        <v>1.325865693149638</v>
       </c>
       <c r="P12">
-        <v>0.7664340861408814</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.469114138839771</v>
+      </c>
+      <c r="R12">
+        <v>0.7732896040388795</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.238890480354655</v>
+        <v>1.153406703908303</v>
       </c>
       <c r="C13">
-        <v>0.2092546835837368</v>
+        <v>0.2143934032181392</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.04659778944438564</v>
+        <v>0.0481717693929582</v>
       </c>
       <c r="F13">
         <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.3880975232294119</v>
+        <v>0.3685641928669767</v>
       </c>
       <c r="H13">
-        <v>0.1134662101690935</v>
+        <v>0.1134605045048858</v>
       </c>
       <c r="I13">
-        <v>0.001638571786156007</v>
+        <v>0.002011956048876939</v>
       </c>
       <c r="J13">
-        <v>0.3253092953153072</v>
+        <v>0.2552162043628599</v>
       </c>
       <c r="K13">
-        <v>0.2798618282262346</v>
+        <v>0.2310707674142023</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.112686790262762</v>
       </c>
       <c r="M13">
-        <v>1.350255740213129</v>
+        <v>0.07062858135130412</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.3241811529563776</v>
+        <v>1.293206828302232</v>
       </c>
       <c r="P13">
-        <v>0.7799910718983654</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3166100415358386</v>
+      </c>
+      <c r="R13">
+        <v>0.7996214130593557</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.209357915551863</v>
+        <v>1.135296258330641</v>
       </c>
       <c r="C14">
-        <v>0.1962317718792832</v>
+        <v>0.2003241703407639</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.01839235264260441</v>
+        <v>0.01892793119913705</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.3413975641522384</v>
+        <v>0.3197636692661305</v>
       </c>
       <c r="H14">
-        <v>0.1626253089213066</v>
+        <v>0.1626289519156217</v>
       </c>
       <c r="I14">
-        <v>0.00156198914335004</v>
+        <v>0.001944509570674491</v>
       </c>
       <c r="J14">
-        <v>0.3020235031918048</v>
+        <v>0.2517539719735744</v>
       </c>
       <c r="K14">
-        <v>0.2581235055125397</v>
+        <v>0.2180703508168627</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1089361119389096</v>
       </c>
       <c r="M14">
-        <v>1.304939252733021</v>
+        <v>0.06414436353693986</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.2288344058521758</v>
+        <v>1.256629754188936</v>
       </c>
       <c r="P14">
-        <v>0.8010317747110349</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2233686749065491</v>
+      </c>
+      <c r="R14">
+        <v>0.8249121017507619</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.193208854743972</v>
+        <v>1.123545536691267</v>
       </c>
       <c r="C15">
-        <v>0.1921471273894753</v>
+        <v>0.1964444551219628</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.01558279371348315</v>
+        <v>0.01592589804093913</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.329712298336915</v>
+        <v>0.3056380238009311</v>
       </c>
       <c r="H15">
-        <v>0.1750722906191271</v>
+        <v>0.1750786182298611</v>
       </c>
       <c r="I15">
-        <v>0.001630306216362065</v>
+        <v>0.002033892927256531</v>
       </c>
       <c r="J15">
-        <v>0.2965450406694572</v>
+        <v>0.2537644642930843</v>
       </c>
       <c r="K15">
-        <v>0.2531555300879589</v>
+        <v>0.2157709638040828</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1084335358035027</v>
       </c>
       <c r="M15">
-        <v>1.285046768577018</v>
+        <v>0.06266491029373356</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2064354015657202</v>
+        <v>1.240888190009656</v>
       </c>
       <c r="P15">
-        <v>0.8092469378147982</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2016542247389559</v>
+      </c>
+      <c r="R15">
+        <v>0.8325116475327405</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.117048521641095</v>
+        <v>1.060631944901672</v>
       </c>
       <c r="C16">
-        <v>0.1805605447902821</v>
+        <v>0.1884792675142819</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.01535254501793615</v>
+        <v>0.01594418378265594</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.3291873370463563</v>
+        <v>0.2891851958962377</v>
       </c>
       <c r="H16">
-        <v>0.1620824739768665</v>
+        <v>0.1620891116761811</v>
       </c>
       <c r="I16">
-        <v>0.001586208942216061</v>
+        <v>0.001967910098568559</v>
       </c>
       <c r="J16">
-        <v>0.3000316717657086</v>
+        <v>0.2830731066278531</v>
       </c>
       <c r="K16">
-        <v>0.257838112933733</v>
+        <v>0.2252346562518568</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1129757200704447</v>
       </c>
       <c r="M16">
-        <v>1.204102630403469</v>
+        <v>0.06399834709117513</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1965227567054946</v>
+        <v>1.176687398854114</v>
       </c>
       <c r="P16">
-        <v>0.8263705374720516</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.1935256691691443</v>
+      </c>
+      <c r="R16">
+        <v>0.8373937464733103</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.074293616156353</v>
+        <v>1.020936882293597</v>
       </c>
       <c r="C17">
-        <v>0.1785824186586069</v>
+        <v>0.1892085281628368</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.02480389469361199</v>
+        <v>0.02582709777233028</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.352954220500159</v>
+        <v>0.3030639701939464</v>
       </c>
       <c r="H17">
-        <v>0.1241842905439938</v>
+        <v>0.124185162593605</v>
       </c>
       <c r="I17">
-        <v>0.001634115494494104</v>
+        <v>0.001988963294435209</v>
       </c>
       <c r="J17">
-        <v>0.3148436930722269</v>
+        <v>0.3079823917402038</v>
       </c>
       <c r="K17">
-        <v>0.2726434243049312</v>
+        <v>0.2392763133639733</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1188284594881939</v>
       </c>
       <c r="M17">
-        <v>1.166076242099308</v>
+        <v>0.06809037153467479</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.2362548023910982</v>
+        <v>1.144891957897556</v>
       </c>
       <c r="P17">
-        <v>0.8278641466084942</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2336861873537543</v>
+      </c>
+      <c r="R17">
+        <v>0.8304803515716586</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.057517294889806</v>
+        <v>1.00023436032356</v>
       </c>
       <c r="C18">
-        <v>0.1840581270391652</v>
+        <v>0.1980772290258841</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.07042192256484725</v>
+        <v>0.07208408927972343</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.4047272577492436</v>
+        <v>0.3436699053759114</v>
       </c>
       <c r="H18">
-        <v>0.07133847393792081</v>
+        <v>0.07134412513345012</v>
       </c>
       <c r="I18">
-        <v>0.001418794219497421</v>
+        <v>0.001716205787952951</v>
       </c>
       <c r="J18">
-        <v>0.3431599124737232</v>
+        <v>0.3375739263566757</v>
       </c>
       <c r="K18">
-        <v>0.3005527459632731</v>
+        <v>0.2619390223919424</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1276803986386188</v>
       </c>
       <c r="M18">
-        <v>1.161133811958621</v>
+        <v>0.07601688553531361</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.3369082737492946</v>
+        <v>1.140775051260647</v>
       </c>
       <c r="P18">
-        <v>0.8223132968874083</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.333993338093137</v>
+      </c>
+      <c r="R18">
+        <v>0.8162723782912629</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.057941412927903</v>
+        <v>0.9924062370259321</v>
       </c>
       <c r="C19">
-        <v>0.1971335788290531</v>
+        <v>0.2154740568979889</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.182458397222959</v>
+        <v>0.1850102535784046</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.4765956145514139</v>
+        <v>0.4021761603425915</v>
       </c>
       <c r="H19">
-        <v>0.02624423516419228</v>
+        <v>0.02626825287186563</v>
       </c>
       <c r="I19">
-        <v>0.001531406223692855</v>
+        <v>0.00186937240158791</v>
       </c>
       <c r="J19">
-        <v>0.3806293016669002</v>
+        <v>0.3707253101110695</v>
       </c>
       <c r="K19">
-        <v>0.3375189107408225</v>
+        <v>0.2903734729282199</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1384269249373062</v>
       </c>
       <c r="M19">
-        <v>1.18166641985232</v>
+        <v>0.08664512115644385</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.500400506673941</v>
+        <v>1.158963299286683</v>
       </c>
       <c r="P19">
-        <v>0.8217563631001088</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.4965131081038479</v>
+      </c>
+      <c r="R19">
+        <v>0.8053212942548491</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.115663900659115</v>
+        <v>1.029538916108379</v>
       </c>
       <c r="C20">
-        <v>0.2283847251136706</v>
+        <v>0.2535076004338919</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4718385010554087</v>
+        <v>0.4763135837600103</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.6081871899006757</v>
+        <v>0.5155867598750632</v>
       </c>
       <c r="H20">
-        <v>0.001175006029419112</v>
+        <v>0.001215058108833045</v>
       </c>
       <c r="I20">
-        <v>0.001668936300430524</v>
+        <v>0.002090452791570385</v>
       </c>
       <c r="J20">
-        <v>0.4453878374897045</v>
+        <v>0.4106741294450558</v>
       </c>
       <c r="K20">
-        <v>0.4021402287254254</v>
+        <v>0.3358632748196051</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1536560143111174</v>
       </c>
       <c r="M20">
-        <v>1.276354443627184</v>
+        <v>0.1063344446381294</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8343448723424771</v>
+        <v>1.242728756904995</v>
       </c>
       <c r="P20">
-        <v>0.829982182250161</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.8271033473790226</v>
+      </c>
+      <c r="R20">
+        <v>0.7945345360774319</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.259019550260973</v>
+        <v>1.141309098484612</v>
       </c>
       <c r="C21">
-        <v>0.2594615808299352</v>
+        <v>0.2777640263772128</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5586021520420985</v>
+        <v>0.5662397030703517</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.6551008494766819</v>
+        <v>0.6063939469603525</v>
       </c>
       <c r="H21">
-        <v>0.002543720099713154</v>
+        <v>0.002467215682261381</v>
       </c>
       <c r="I21">
-        <v>0.002243657721408887</v>
+        <v>0.002642519898789608</v>
       </c>
       <c r="J21">
-        <v>0.4621161839837384</v>
+        <v>0.3310600503589498</v>
       </c>
       <c r="K21">
-        <v>0.4162962323724955</v>
+        <v>0.3273441898109404</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1452522054847201</v>
       </c>
       <c r="M21">
-        <v>1.442875718519957</v>
+        <v>0.1106277857432758</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9679002917342956</v>
+        <v>1.372297958845763</v>
       </c>
       <c r="P21">
-        <v>0.7943065541054466</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.9519911045616851</v>
+      </c>
+      <c r="R21">
+        <v>0.7563151715751308</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.35515276891951</v>
+        <v>1.215820017678027</v>
       </c>
       <c r="C22">
-        <v>0.2777338387521837</v>
+        <v>0.2903753259077178</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5989869272966359</v>
+        <v>0.6088806570277967</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.6831722552010149</v>
+        <v>0.670946221135182</v>
       </c>
       <c r="H22">
-        <v>0.003712820205156397</v>
+        <v>0.003515713453384306</v>
       </c>
       <c r="I22">
-        <v>0.002586973966044681</v>
+        <v>0.002815135606870633</v>
       </c>
       <c r="J22">
-        <v>0.4717960051259666</v>
+        <v>0.2837942748861551</v>
       </c>
       <c r="K22">
-        <v>0.4246519196520708</v>
+        <v>0.3203311922571039</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1395204203842759</v>
       </c>
       <c r="M22">
-        <v>1.550792411789274</v>
+        <v>0.1130241206643738</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.039227834656685</v>
+        <v>1.453760872995986</v>
       </c>
       <c r="P22">
-        <v>0.7708024778355487</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.017135000842863</v>
+      </c>
+      <c r="R22">
+        <v>0.7324642822792899</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.306944801656499</v>
+        <v>1.180492228611541</v>
       </c>
       <c r="C23">
-        <v>0.2668295541908066</v>
+        <v>0.2839236313404001</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5773395882045378</v>
+        <v>0.5856663829705369</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.6710363711986247</v>
+        <v>0.6319726249813584</v>
       </c>
       <c r="H23">
-        <v>0.003068526146170925</v>
+        <v>0.002945322330582201</v>
       </c>
       <c r="I23">
-        <v>0.002088458885328492</v>
+        <v>0.002358159067552101</v>
       </c>
       <c r="J23">
-        <v>0.4680755150104829</v>
+        <v>0.3170104351605119</v>
       </c>
       <c r="K23">
-        <v>0.4221300722956087</v>
+        <v>0.3271853327677121</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1435869490075277</v>
       </c>
       <c r="M23">
-        <v>1.494182340595444</v>
+        <v>0.1130470659725979</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.001375346142481</v>
+        <v>1.414603498790854</v>
       </c>
       <c r="P23">
-        <v>0.7841679314270689</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.9833637226855814</v>
+      </c>
+      <c r="R23">
+        <v>0.7454795927493088</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.119284285271902</v>
+        <v>1.032104132026831</v>
       </c>
       <c r="C24">
-        <v>0.2279241701013461</v>
+        <v>0.2535169802572597</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4958228903770703</v>
+        <v>0.5004074621042847</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.621697999063656</v>
+        <v>0.5265954807987043</v>
       </c>
       <c r="H24">
-        <v>0.001150106727109801</v>
+        <v>0.001190934901492691</v>
       </c>
       <c r="I24">
-        <v>0.001190926149877924</v>
+        <v>0.001514567028856106</v>
       </c>
       <c r="J24">
-        <v>0.4523413477184306</v>
+        <v>0.4172785536700161</v>
       </c>
       <c r="K24">
-        <v>0.4100073598477643</v>
+        <v>0.3421796975384481</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1560456836944617</v>
       </c>
       <c r="M24">
-        <v>1.278763585534676</v>
+        <v>0.1086916433133283</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8580806470850888</v>
+        <v>1.245006811937969</v>
       </c>
       <c r="P24">
-        <v>0.8346091338711403</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.8507149640830818</v>
+      </c>
+      <c r="R24">
+        <v>0.7966651044378197</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9167411499153673</v>
+        <v>0.8535040841233297</v>
       </c>
       <c r="C25">
-        <v>0.1869123258372269</v>
+        <v>0.2058194274467837</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4084466332675589</v>
+        <v>0.4127441402860228</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.5711211161173679</v>
+        <v>0.4877417736050376</v>
       </c>
       <c r="H25">
-        <v>9.54846160219347E-05</v>
+        <v>0.000133841379448052</v>
       </c>
       <c r="I25">
-        <v>0.001274138580344086</v>
+        <v>0.001344265675239598</v>
       </c>
       <c r="J25">
-        <v>0.4368938045150799</v>
+        <v>0.4161064529541392</v>
       </c>
       <c r="K25">
-        <v>0.3982026401601111</v>
+        <v>0.3411424053699434</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1638683517210389</v>
       </c>
       <c r="M25">
-        <v>1.047425526089086</v>
+        <v>0.09852332100210504</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.7042438314003121</v>
+        <v>1.025329924324097</v>
       </c>
       <c r="P25">
-        <v>0.8914705377211476</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.6996045005636091</v>
+      </c>
+      <c r="R25">
+        <v>0.8509377866587298</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
